--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1020610.231755609</v>
+        <v>1016076.581224018</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22771946.35499148</v>
+        <v>22771946.35499147</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5898763.518426042</v>
+        <v>5898763.518426041</v>
       </c>
     </row>
     <row r="11">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.758835338221829</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.95903142690459</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>230.6217897709946</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>72.93082706959214</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>104.813694600883</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>59.35311653050251</v>
+        <v>44.04165277761637</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>86.35704260789379</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>153.288405331309</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.1895850495404</v>
+        <v>205.4726697811741</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.1630720205049</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>68.88689975583398</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.91625269094769</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
@@ -1700,7 +1700,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>104.813694600883</v>
+        <v>62.01633546767385</v>
       </c>
       <c r="H15" t="n">
         <v>59.35311653050251</v>
@@ -1742,7 +1742,7 @@
         <v>153.288405331309</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3045055848791</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>38.75996364370347</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.3611507780025</v>
       </c>
       <c r="T16" t="n">
-        <v>233.1895850495404</v>
+        <v>113.7702355417211</v>
       </c>
       <c r="U16" t="n">
         <v>279.9195659803985</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.40124550441344</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>119.1850608297827</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5.758835338221829</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>210.9314267726901</v>
       </c>
       <c r="U17" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>196.7754902813681</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2004,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.6502205165041</v>
       </c>
       <c r="H19" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>166.7026037428855</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>75.04896678605348</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>338.2216182903734</v>
       </c>
       <c r="G20" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>286.6197530438301</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>86.80203596162579</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>50.2942705819452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>88.07864137326052</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.6502205165041</v>
       </c>
       <c r="H22" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.28511935522941</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S22" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>233.1895850495404</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9195659803985</v>
+        <v>184.272461696501</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>5.758835338221829</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>72.69353130689871</v>
+        <v>178.0252031768997</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2490,13 +2490,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.8635808156043</v>
+        <v>7.913436835212729</v>
       </c>
       <c r="I25" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U25" t="n">
-        <v>182.3938450751236</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>286.6197530438301</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.758835338221829</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>86.80203596162579</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>31.01297098070432</v>
       </c>
       <c r="Y26" t="n">
-        <v>117.0675064880094</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2721,7 +2721,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>108.5059670059465</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2730,10 +2730,10 @@
         <v>164.6502205165041</v>
       </c>
       <c r="H28" t="n">
-        <v>129.6229792655582</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2794,25 +2794,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5.758835338221829</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>86.80203596162579</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>225.8479656288056</v>
       </c>
       <c r="V29" t="n">
-        <v>29.41018296189867</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2970,7 +2970,7 @@
         <v>139.8635808156043</v>
       </c>
       <c r="I31" t="n">
-        <v>46.65742776644738</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S31" t="n">
-        <v>168.3611507780025</v>
+        <v>48.35910154457581</v>
       </c>
       <c r="T31" t="n">
         <v>233.1895850495404</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3031,10 +3031,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>168.4407872518778</v>
       </c>
       <c r="X32" t="n">
-        <v>379.3306469103171</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>85.69149074671348</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3198,7 +3198,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.6502205165041</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U34" t="n">
         <v>279.9195659803985</v>
       </c>
       <c r="V34" t="n">
-        <v>173.6211667045979</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3268,25 +3268,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>353.3564080580043</v>
       </c>
       <c r="H35" t="n">
-        <v>40.80749479552146</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5.758835338221829</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>86.80203596162579</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>115.7281862028008</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
         <v>119.2878878475953</v>
@@ -3359,7 +3359,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.813694600883</v>
+        <v>104.8136946008823</v>
       </c>
       <c r="H36" t="n">
         <v>59.35311653050251</v>
@@ -3441,10 +3441,10 @@
         <v>164.6502205165041</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.3611507780025</v>
       </c>
       <c r="T37" t="n">
-        <v>22.76495545360918</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>21.98626003238005</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>210.9314267726901</v>
       </c>
       <c r="U38" t="n">
-        <v>254.324440930408</v>
+        <v>132.3117194518753</v>
       </c>
       <c r="V38" t="n">
-        <v>194.1479652542444</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.6502205165041</v>
+        <v>39.30127190067905</v>
       </c>
       <c r="H40" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.3611507780025</v>
@@ -3717,16 +3717,16 @@
         <v>233.1895850495404</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>74.66606159836358</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>261.8831729706516</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>204.4255197593332</v>
       </c>
       <c r="I41" t="n">
         <v>5.758835338221829</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U41" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>68.71250297594921</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
         <v>132.6551205385437</v>
@@ -3830,10 +3830,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>104.813694600883</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>59.35311653050251</v>
@@ -3872,7 +3872,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>153.288405331309</v>
+        <v>137.9769415784227</v>
       </c>
       <c r="U42" t="n">
         <v>195.3045055848791</v>
@@ -3887,7 +3887,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="43">
@@ -3903,16 +3903,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>156.3663203481622</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>112.4855504698781</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>314.0975855576025</v>
       </c>
       <c r="G44" t="n">
         <v>402.5729276076336</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>264.1876549029675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,10 +4064,10 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>76.97249801731759</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>86.35704260789379</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>153.288405331309</v>
+        <v>89.4597770896047</v>
       </c>
       <c r="U45" t="n">
         <v>195.3045055848791</v>
@@ -4137,25 +4137,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>139.8635808156043</v>
       </c>
       <c r="I46" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>168.3611507780025</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.9883260069261</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>36.21189001654588</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>848.689771284088</v>
+        <v>875.2888836119778</v>
       </c>
       <c r="C11" t="n">
-        <v>438.5651805973582</v>
+        <v>875.2888836119778</v>
       </c>
       <c r="D11" t="n">
-        <v>34.10125069041869</v>
+        <v>875.2888836119778</v>
       </c>
       <c r="E11" t="n">
-        <v>34.10125069041869</v>
+        <v>460.9486681288744</v>
       </c>
       <c r="F11" t="n">
-        <v>34.10125069041869</v>
+        <v>39.91825608256197</v>
       </c>
       <c r="G11" t="n">
-        <v>34.10125069041869</v>
+        <v>39.91825608256197</v>
       </c>
       <c r="H11" t="n">
-        <v>34.10125069041869</v>
+        <v>39.91825608256197</v>
       </c>
       <c r="I11" t="n">
-        <v>34.10125069041869</v>
+        <v>34.10125069041871</v>
       </c>
       <c r="J11" t="n">
-        <v>135.2808102736766</v>
+        <v>135.2808102736765</v>
       </c>
       <c r="K11" t="n">
         <v>307.471841883515</v>
       </c>
       <c r="L11" t="n">
-        <v>536.035256320542</v>
+        <v>536.0352563205422</v>
       </c>
       <c r="M11" t="n">
-        <v>803.1822165017561</v>
+        <v>803.1822165017566</v>
       </c>
       <c r="N11" t="n">
         <v>1076.520486185678</v>
       </c>
       <c r="O11" t="n">
-        <v>1329.225282482204</v>
+        <v>1329.225282482205</v>
       </c>
       <c r="P11" t="n">
-        <v>1530.93007424132</v>
+        <v>1530.930074241321</v>
       </c>
       <c r="Q11" t="n">
         <v>1662.8920102786</v>
@@ -5068,25 +5068,25 @@
         <v>1705.062534520935</v>
       </c>
       <c r="S11" t="n">
-        <v>1633.386745200829</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="T11" t="n">
-        <v>1633.386745200829</v>
+        <v>1492.000487275794</v>
       </c>
       <c r="U11" t="n">
-        <v>1633.386745200829</v>
+        <v>1492.000487275794</v>
       </c>
       <c r="V11" t="n">
-        <v>1633.386745200829</v>
+        <v>1259.049184476809</v>
       </c>
       <c r="W11" t="n">
-        <v>1249.626444335998</v>
+        <v>875.2888836119778</v>
       </c>
       <c r="X11" t="n">
-        <v>1249.626444335998</v>
+        <v>875.2888836119778</v>
       </c>
       <c r="Y11" t="n">
-        <v>848.689771284088</v>
+        <v>875.2888836119778</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>429.3790082644604</v>
+        <v>449.9728136869409</v>
       </c>
       <c r="C12" t="n">
-        <v>429.3790082644604</v>
+        <v>315.9777424358866</v>
       </c>
       <c r="D12" t="n">
-        <v>429.3790082644604</v>
+        <v>199.080584655279</v>
       </c>
       <c r="E12" t="n">
-        <v>308.8861922567884</v>
+        <v>78.58776864760696</v>
       </c>
       <c r="F12" t="n">
-        <v>199.9263124392929</v>
+        <v>78.58776864760696</v>
       </c>
       <c r="G12" t="n">
-        <v>94.05389365052224</v>
+        <v>78.58776864760696</v>
       </c>
       <c r="H12" t="n">
-        <v>34.10125069041869</v>
+        <v>34.10125069041871</v>
       </c>
       <c r="I12" t="n">
-        <v>51.48176916722377</v>
+        <v>34.10125069041871</v>
       </c>
       <c r="J12" t="n">
-        <v>347.7907976626885</v>
+        <v>157.7835009119682</v>
       </c>
       <c r="K12" t="n">
-        <v>469.4147134576976</v>
+        <v>279.4074167069773</v>
       </c>
       <c r="L12" t="n">
-        <v>651.7137067353736</v>
+        <v>461.7064099846533</v>
       </c>
       <c r="M12" t="n">
-        <v>872.2875650121722</v>
+        <v>682.2802682614519</v>
       </c>
       <c r="N12" t="n">
-        <v>1104.534858170436</v>
+        <v>914.5275614197153</v>
       </c>
       <c r="O12" t="n">
-        <v>1307.996741163133</v>
+        <v>1117.989444412413</v>
       </c>
       <c r="P12" t="n">
-        <v>1463.462947952706</v>
+        <v>1273.455651201985</v>
       </c>
       <c r="Q12" t="n">
-        <v>1695.458628495916</v>
+        <v>1695.458628495917</v>
       </c>
       <c r="R12" t="n">
         <v>1705.062534520935</v>
       </c>
       <c r="S12" t="n">
-        <v>1617.833198553365</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="T12" t="n">
-        <v>1462.996425491437</v>
+        <v>1550.225761459007</v>
       </c>
       <c r="U12" t="n">
-        <v>1265.719147122872</v>
+        <v>1352.948483090442</v>
       </c>
       <c r="V12" t="n">
-        <v>1052.007620115906</v>
+        <v>1139.236956083476</v>
       </c>
       <c r="W12" t="n">
-        <v>838.7744518522346</v>
+        <v>926.0037878198046</v>
       </c>
       <c r="X12" t="n">
-        <v>662.4484699911275</v>
+        <v>749.6778059586975</v>
       </c>
       <c r="Y12" t="n">
-        <v>503.0465103549575</v>
+        <v>590.2758463225275</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1085.987694369647</v>
+        <v>198.7323765798274</v>
       </c>
       <c r="C13" t="n">
-        <v>914.8943219313635</v>
+        <v>198.7323765798274</v>
       </c>
       <c r="D13" t="n">
-        <v>755.3996772542735</v>
+        <v>198.7323765798274</v>
       </c>
       <c r="E13" t="n">
-        <v>594.4888621225929</v>
+        <v>198.7323765798274</v>
       </c>
       <c r="F13" t="n">
-        <v>429.8577362331841</v>
+        <v>34.10125069041871</v>
       </c>
       <c r="G13" t="n">
-        <v>263.5443821761093</v>
+        <v>34.10125069041871</v>
       </c>
       <c r="H13" t="n">
-        <v>122.2680379179232</v>
+        <v>34.10125069041871</v>
       </c>
       <c r="I13" t="n">
-        <v>34.10125069041869</v>
+        <v>34.10125069041871</v>
       </c>
       <c r="J13" t="n">
-        <v>113.1139717336499</v>
+        <v>48.11260810231354</v>
       </c>
       <c r="K13" t="n">
-        <v>374.3665172177375</v>
+        <v>103.084960000687</v>
       </c>
       <c r="L13" t="n">
-        <v>456.8240493987131</v>
+        <v>400.3014437470003</v>
       </c>
       <c r="M13" t="n">
-        <v>878.8270266926445</v>
+        <v>822.3044210409319</v>
       </c>
       <c r="N13" t="n">
-        <v>1300.204523138946</v>
+        <v>1243.681917487233</v>
       </c>
       <c r="O13" t="n">
-        <v>1506.778816884962</v>
+        <v>1633.0527770908</v>
       </c>
       <c r="P13" t="n">
-        <v>1562.631867331538</v>
+        <v>1688.905827537376</v>
       </c>
       <c r="Q13" t="n">
         <v>1705.062534520935</v>
       </c>
       <c r="R13" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="S13" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="T13" t="n">
-        <v>1426.377372501575</v>
+        <v>1497.51438322682</v>
       </c>
       <c r="U13" t="n">
-        <v>1426.377372501575</v>
+        <v>1214.767346882983</v>
       </c>
       <c r="V13" t="n">
-        <v>1426.377372501575</v>
+        <v>940.881601822505</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.377372501575</v>
+        <v>661.8119373313793</v>
       </c>
       <c r="X13" t="n">
-        <v>1426.377372501575</v>
+        <v>423.4680751910628</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.687400763691</v>
+        <v>198.7323765798274</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.5009831086569</v>
+        <v>875.2888836119778</v>
       </c>
       <c r="C14" t="n">
-        <v>109.5009831086569</v>
+        <v>875.2888836119778</v>
       </c>
       <c r="D14" t="n">
-        <v>39.91825608256197</v>
+        <v>875.2888836119778</v>
       </c>
       <c r="E14" t="n">
-        <v>39.91825608256197</v>
+        <v>460.9486681288744</v>
       </c>
       <c r="F14" t="n">
         <v>39.91825608256197</v>
@@ -5305,25 +5305,25 @@
         <v>1705.062534520935</v>
       </c>
       <c r="S14" t="n">
-        <v>1705.062534520935</v>
+        <v>1659.692582307857</v>
       </c>
       <c r="T14" t="n">
-        <v>1705.062534520935</v>
+        <v>1659.692582307857</v>
       </c>
       <c r="U14" t="n">
-        <v>1705.062534520935</v>
+        <v>1659.692582307857</v>
       </c>
       <c r="V14" t="n">
-        <v>1705.062534520935</v>
+        <v>1659.692582307857</v>
       </c>
       <c r="W14" t="n">
-        <v>1321.302233656104</v>
+        <v>1275.932281443025</v>
       </c>
       <c r="X14" t="n">
-        <v>920.6588358250563</v>
+        <v>875.2888836119778</v>
       </c>
       <c r="Y14" t="n">
-        <v>519.7221627731464</v>
+        <v>875.2888836119778</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>680.2712372961223</v>
+        <v>503.0465103549577</v>
       </c>
       <c r="C15" t="n">
-        <v>546.276166045068</v>
+        <v>503.0465103549577</v>
       </c>
       <c r="D15" t="n">
-        <v>429.3790082644604</v>
+        <v>386.1493525743501</v>
       </c>
       <c r="E15" t="n">
-        <v>308.8861922567884</v>
+        <v>265.6565365666781</v>
       </c>
       <c r="F15" t="n">
-        <v>199.9263124392929</v>
+        <v>156.6966567491827</v>
       </c>
       <c r="G15" t="n">
         <v>94.05389365052226</v>
@@ -5357,28 +5357,28 @@
         <v>51.48176916722377</v>
       </c>
       <c r="J15" t="n">
-        <v>104.1223936880553</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K15" t="n">
-        <v>377.9986424451462</v>
+        <v>469.4147134576976</v>
       </c>
       <c r="L15" t="n">
-        <v>800.0016197390777</v>
+        <v>651.7137067353736</v>
       </c>
       <c r="M15" t="n">
-        <v>1020.575478015876</v>
+        <v>872.2875650121722</v>
       </c>
       <c r="N15" t="n">
-        <v>1252.82277117414</v>
+        <v>1104.534858170436</v>
       </c>
       <c r="O15" t="n">
-        <v>1456.284654166837</v>
+        <v>1307.996741163133</v>
       </c>
       <c r="P15" t="n">
-        <v>1611.750860956409</v>
+        <v>1463.462947952706</v>
       </c>
       <c r="Q15" t="n">
-        <v>1695.458628495917</v>
+        <v>1607.488912018935</v>
       </c>
       <c r="R15" t="n">
         <v>1705.062534520935</v>
@@ -5390,19 +5390,19 @@
         <v>1462.996425491437</v>
       </c>
       <c r="U15" t="n">
-        <v>1462.996425491437</v>
+        <v>1265.719147122872</v>
       </c>
       <c r="V15" t="n">
-        <v>1249.284898484471</v>
+        <v>1052.007620115906</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.0517302208</v>
+        <v>838.7744518522348</v>
       </c>
       <c r="X15" t="n">
-        <v>859.7257483596923</v>
+        <v>662.4484699911277</v>
       </c>
       <c r="Y15" t="n">
-        <v>820.574269931709</v>
+        <v>503.0465103549577</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.2680379179232</v>
+        <v>359.6431917115079</v>
       </c>
       <c r="C16" t="n">
-        <v>122.2680379179232</v>
+        <v>359.6431917115079</v>
       </c>
       <c r="D16" t="n">
-        <v>122.2680379179232</v>
+        <v>359.6431917115079</v>
       </c>
       <c r="E16" t="n">
-        <v>122.2680379179232</v>
+        <v>198.7323765798274</v>
       </c>
       <c r="F16" t="n">
-        <v>122.2680379179232</v>
+        <v>34.1012506904187</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2680379179232</v>
+        <v>34.1012506904187</v>
       </c>
       <c r="H16" t="n">
-        <v>122.2680379179232</v>
+        <v>34.1012506904187</v>
       </c>
       <c r="I16" t="n">
         <v>34.1012506904187</v>
       </c>
       <c r="J16" t="n">
-        <v>113.1139717336499</v>
+        <v>48.11260810231353</v>
       </c>
       <c r="K16" t="n">
-        <v>374.3665172177375</v>
+        <v>103.084960000687</v>
       </c>
       <c r="L16" t="n">
-        <v>770.8031606337362</v>
+        <v>499.5216034166857</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.242038228303</v>
+        <v>822.3044210409319</v>
       </c>
       <c r="N16" t="n">
-        <v>1171.585233227019</v>
+        <v>1243.681917487233</v>
       </c>
       <c r="O16" t="n">
-        <v>1245.881333411844</v>
+        <v>1633.0527770908</v>
       </c>
       <c r="P16" t="n">
-        <v>1562.631867331539</v>
+        <v>1688.905827537376</v>
       </c>
       <c r="Q16" t="n">
         <v>1705.062534520935</v>
       </c>
       <c r="R16" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="S16" t="n">
-        <v>1491.860639442523</v>
+        <v>1535.000766058306</v>
       </c>
       <c r="T16" t="n">
-        <v>1256.315604038947</v>
+        <v>1420.081336218184</v>
       </c>
       <c r="U16" t="n">
-        <v>973.5685676951096</v>
+        <v>1137.334299874347</v>
       </c>
       <c r="V16" t="n">
-        <v>699.6828226346315</v>
+        <v>863.4485548138689</v>
       </c>
       <c r="W16" t="n">
-        <v>420.6131581435059</v>
+        <v>584.3788903227432</v>
       </c>
       <c r="X16" t="n">
-        <v>182.2692960031893</v>
+        <v>584.3788903227432</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.2680379179232</v>
+        <v>359.6431917115079</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>871.7364117821703</v>
+        <v>576.9119554611149</v>
       </c>
       <c r="C17" t="n">
-        <v>461.6118210954403</v>
+        <v>166.787364774385</v>
       </c>
       <c r="D17" t="n">
-        <v>461.6118210954403</v>
+        <v>166.787364774385</v>
       </c>
       <c r="E17" t="n">
-        <v>461.6118210954403</v>
+        <v>166.787364774385</v>
       </c>
       <c r="F17" t="n">
-        <v>40.58140904912791</v>
+        <v>166.787364774385</v>
       </c>
       <c r="G17" t="n">
-        <v>40.58140904912791</v>
+        <v>46.39841444127117</v>
       </c>
       <c r="H17" t="n">
-        <v>40.58140904912791</v>
+        <v>46.39841444127117</v>
       </c>
       <c r="I17" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J17" t="n">
-        <v>459.2887282091364</v>
+        <v>332.2930611329954</v>
       </c>
       <c r="K17" t="n">
-        <v>631.4797598189748</v>
+        <v>504.4840927428338</v>
       </c>
       <c r="L17" t="n">
-        <v>860.043174256002</v>
+        <v>733.047507179861</v>
       </c>
       <c r="M17" t="n">
-        <v>1127.190134437216</v>
+        <v>1000.194467361075</v>
       </c>
       <c r="N17" t="n">
-        <v>1400.528404121138</v>
+        <v>1273.532737044997</v>
       </c>
       <c r="O17" t="n">
-        <v>1653.233200417664</v>
+        <v>1526.237533341523</v>
       </c>
       <c r="P17" t="n">
-        <v>1854.937992176781</v>
+        <v>1727.94232510064</v>
       </c>
       <c r="Q17" t="n">
-        <v>1986.89992821406</v>
+        <v>1859.904261137919</v>
       </c>
       <c r="R17" t="n">
         <v>2029.070452456395</v>
@@ -5548,19 +5548,19 @@
         <v>1728.329581007592</v>
       </c>
       <c r="U17" t="n">
-        <v>1471.436206330412</v>
+        <v>1728.329581007592</v>
       </c>
       <c r="V17" t="n">
-        <v>1272.67308483408</v>
+        <v>1378.492026344072</v>
       </c>
       <c r="W17" t="n">
-        <v>1272.67308483408</v>
+        <v>1378.492026344072</v>
       </c>
       <c r="X17" t="n">
-        <v>1272.67308483408</v>
+        <v>977.8486285130248</v>
       </c>
       <c r="Y17" t="n">
-        <v>871.7364117821703</v>
+        <v>576.9119554611149</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>686.7513956548314</v>
+        <v>686.7513956548313</v>
       </c>
       <c r="C18" t="n">
-        <v>552.7563244037772</v>
+        <v>552.7563244037771</v>
       </c>
       <c r="D18" t="n">
-        <v>435.8591666231696</v>
+        <v>435.8591666231694</v>
       </c>
       <c r="E18" t="n">
-        <v>315.3663506154976</v>
+        <v>315.3663506154974</v>
       </c>
       <c r="F18" t="n">
-        <v>206.4064707980021</v>
+        <v>206.4064707980019</v>
       </c>
       <c r="G18" t="n">
         <v>100.5340520092315</v>
@@ -5594,25 +5594,25 @@
         <v>57.96192752593298</v>
       </c>
       <c r="J18" t="n">
-        <v>326.1467551210977</v>
+        <v>354.2709560213978</v>
       </c>
       <c r="K18" t="n">
-        <v>447.7706709161068</v>
+        <v>583.7931840951861</v>
       </c>
       <c r="L18" t="n">
-        <v>630.0696641937828</v>
+        <v>766.0921773728621</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6435224705814</v>
+        <v>986.6660356496607</v>
       </c>
       <c r="N18" t="n">
-        <v>1082.890815628845</v>
+        <v>1488.860972632619</v>
       </c>
       <c r="O18" t="n">
-        <v>1286.352698621542</v>
+        <v>1692.322855625316</v>
       </c>
       <c r="P18" t="n">
-        <v>1441.818905411115</v>
+        <v>1847.789062414889</v>
       </c>
       <c r="Q18" t="n">
         <v>1931.496829954396</v>
@@ -5624,7 +5624,7 @@
         <v>1941.841116488826</v>
       </c>
       <c r="T18" t="n">
-        <v>1787.004343426897</v>
+        <v>1787.004343426898</v>
       </c>
       <c r="U18" t="n">
         <v>1589.727065058333</v>
@@ -5636,10 +5636,10 @@
         <v>1162.782369787695</v>
       </c>
       <c r="X18" t="n">
-        <v>986.456387926588</v>
+        <v>986.4563879265879</v>
       </c>
       <c r="Y18" t="n">
-        <v>827.0544282904181</v>
+        <v>827.0544282904179</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1004.301065500852</v>
+        <v>455.9723654653878</v>
       </c>
       <c r="C19" t="n">
-        <v>833.2076930625683</v>
+        <v>455.9723654653878</v>
       </c>
       <c r="D19" t="n">
-        <v>673.7130483854783</v>
+        <v>455.9723654653878</v>
       </c>
       <c r="E19" t="n">
-        <v>512.8022332537977</v>
+        <v>295.0615503337073</v>
       </c>
       <c r="F19" t="n">
-        <v>348.1711073643889</v>
+        <v>295.0615503337073</v>
       </c>
       <c r="G19" t="n">
-        <v>181.857753307314</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="H19" t="n">
-        <v>40.58140904912791</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="I19" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J19" t="n">
-        <v>54.59276646102273</v>
+        <v>119.5941300923591</v>
       </c>
       <c r="K19" t="n">
-        <v>274.4447409749822</v>
+        <v>380.8466755764467</v>
       </c>
       <c r="L19" t="n">
-        <v>670.8813843909809</v>
+        <v>777.2833189924454</v>
       </c>
       <c r="M19" t="n">
-        <v>759.1408952974368</v>
+        <v>1210.509179413187</v>
       </c>
       <c r="N19" t="n">
-        <v>1180.518391743738</v>
+        <v>1306.792351949576</v>
       </c>
       <c r="O19" t="n">
-        <v>1569.889251347305</v>
+        <v>1696.163211553142</v>
       </c>
       <c r="P19" t="n">
-        <v>1886.639785266999</v>
+        <v>2012.913745472836</v>
       </c>
       <c r="Q19" t="n">
         <v>2029.070452456395</v>
@@ -5700,25 +5700,25 @@
         <v>2029.070452456395</v>
       </c>
       <c r="S19" t="n">
-        <v>1859.008683993766</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="T19" t="n">
-        <v>1859.008683993766</v>
+        <v>1793.525417052819</v>
       </c>
       <c r="U19" t="n">
-        <v>1859.008683993766</v>
+        <v>1510.778380708982</v>
       </c>
       <c r="V19" t="n">
-        <v>1585.122938933288</v>
+        <v>1236.892635648504</v>
       </c>
       <c r="W19" t="n">
-        <v>1416.736470506131</v>
+        <v>957.8229711573786</v>
       </c>
       <c r="X19" t="n">
-        <v>1416.736470506131</v>
+        <v>719.479109017062</v>
       </c>
       <c r="Y19" t="n">
-        <v>1192.000771894896</v>
+        <v>643.6720718594322</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1568.046979274789</v>
+        <v>1087.67590546558</v>
       </c>
       <c r="C20" t="n">
-        <v>1568.046979274789</v>
+        <v>677.5513147788505</v>
       </c>
       <c r="D20" t="n">
-        <v>1163.58304936785</v>
+        <v>677.5513147788505</v>
       </c>
       <c r="E20" t="n">
-        <v>1163.58304936785</v>
+        <v>677.5513147788505</v>
       </c>
       <c r="F20" t="n">
-        <v>742.5526373215375</v>
+        <v>335.913316505746</v>
       </c>
       <c r="G20" t="n">
         <v>335.913316505746</v>
@@ -5752,25 +5752,25 @@
         <v>40.58140904912791</v>
       </c>
       <c r="J20" t="n">
-        <v>141.7609686323858</v>
+        <v>459.2887282091364</v>
       </c>
       <c r="K20" t="n">
-        <v>313.9520002422242</v>
+        <v>631.4797598189748</v>
       </c>
       <c r="L20" t="n">
-        <v>542.5154146792514</v>
+        <v>860.043174256002</v>
       </c>
       <c r="M20" t="n">
-        <v>809.6623748604657</v>
+        <v>1127.190134437216</v>
       </c>
       <c r="N20" t="n">
-        <v>1083.000644544387</v>
+        <v>1400.528404121138</v>
       </c>
       <c r="O20" t="n">
-        <v>1335.705440840914</v>
+        <v>1653.233200417664</v>
       </c>
       <c r="P20" t="n">
-        <v>1537.41023260003</v>
+        <v>1854.937992176781</v>
       </c>
       <c r="Q20" t="n">
         <v>1986.89992821406</v>
@@ -5779,25 +5779,25 @@
         <v>2029.070452456395</v>
       </c>
       <c r="S20" t="n">
-        <v>2029.070452456395</v>
+        <v>1941.391628252733</v>
       </c>
       <c r="T20" t="n">
-        <v>2029.070452456395</v>
+        <v>1728.329581007592</v>
       </c>
       <c r="U20" t="n">
-        <v>2029.070452456395</v>
+        <v>1471.436206330412</v>
       </c>
       <c r="V20" t="n">
-        <v>2029.070452456395</v>
+        <v>1471.436206330412</v>
       </c>
       <c r="W20" t="n">
-        <v>2029.070452456395</v>
+        <v>1087.67590546558</v>
       </c>
       <c r="X20" t="n">
-        <v>2029.070452456395</v>
+        <v>1087.67590546558</v>
       </c>
       <c r="Y20" t="n">
-        <v>1978.268158939279</v>
+        <v>1087.67590546558</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>206.4064707980019</v>
       </c>
       <c r="G21" t="n">
-        <v>100.5340520092313</v>
+        <v>100.5340520092315</v>
       </c>
       <c r="H21" t="n">
         <v>40.58140904912791</v>
@@ -5846,13 +5846,13 @@
         <v>1111.015016529145</v>
       </c>
       <c r="O21" t="n">
-        <v>1613.209953512103</v>
+        <v>1314.476899521843</v>
       </c>
       <c r="P21" t="n">
-        <v>1768.676160301675</v>
+        <v>1469.943106311415</v>
       </c>
       <c r="Q21" t="n">
-        <v>1931.496829954396</v>
+        <v>1959.621030854696</v>
       </c>
       <c r="R21" t="n">
         <v>2029.070452456395</v>
@@ -5861,7 +5861,7 @@
         <v>1941.841116488826</v>
       </c>
       <c r="T21" t="n">
-        <v>1787.004343426897</v>
+        <v>1787.004343426898</v>
       </c>
       <c r="U21" t="n">
         <v>1589.727065058333</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>689.9373451007572</v>
+        <v>786.5603825807613</v>
       </c>
       <c r="C22" t="n">
-        <v>689.9373451007572</v>
+        <v>615.4670101424778</v>
       </c>
       <c r="D22" t="n">
-        <v>689.9373451007572</v>
+        <v>455.9723654653878</v>
       </c>
       <c r="E22" t="n">
-        <v>600.9690204813021</v>
+        <v>295.0615503337073</v>
       </c>
       <c r="F22" t="n">
-        <v>436.3378945918934</v>
+        <v>295.0615503337073</v>
       </c>
       <c r="G22" t="n">
-        <v>270.0245405348185</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="H22" t="n">
         <v>128.7481962766324</v>
@@ -5910,52 +5910,52 @@
         <v>40.58140904912791</v>
       </c>
       <c r="J22" t="n">
-        <v>54.59276646102273</v>
+        <v>119.5941300923591</v>
       </c>
       <c r="K22" t="n">
-        <v>109.5651183593962</v>
+        <v>380.8466755764467</v>
       </c>
       <c r="L22" t="n">
-        <v>506.0017617753948</v>
+        <v>777.2833189924454</v>
       </c>
       <c r="M22" t="n">
-        <v>939.2276221961363</v>
+        <v>1210.509179413187</v>
       </c>
       <c r="N22" t="n">
-        <v>1360.605118642438</v>
+        <v>1299.852374411903</v>
       </c>
       <c r="O22" t="n">
-        <v>1749.975978246004</v>
+        <v>1569.889251347305</v>
       </c>
       <c r="P22" t="n">
-        <v>2012.913745472836</v>
+        <v>1886.639785266999</v>
       </c>
       <c r="Q22" t="n">
         <v>2029.070452456395</v>
       </c>
       <c r="R22" t="n">
-        <v>2029.070452456395</v>
+        <v>1985.930325840612</v>
       </c>
       <c r="S22" t="n">
-        <v>1859.008683993766</v>
+        <v>1985.930325840612</v>
       </c>
       <c r="T22" t="n">
-        <v>1623.46364859019</v>
+        <v>1750.385290437036</v>
       </c>
       <c r="U22" t="n">
-        <v>1340.716612246353</v>
+        <v>1564.2514907436</v>
       </c>
       <c r="V22" t="n">
-        <v>1340.716612246353</v>
+        <v>1290.365745683122</v>
       </c>
       <c r="W22" t="n">
-        <v>1340.716612246353</v>
+        <v>1011.296081191997</v>
       </c>
       <c r="X22" t="n">
-        <v>1102.372750106037</v>
+        <v>1011.296081191997</v>
       </c>
       <c r="Y22" t="n">
-        <v>877.6370514948015</v>
+        <v>786.5603825807613</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>470.8234187304557</v>
+        <v>1576.229041126386</v>
       </c>
       <c r="C23" t="n">
-        <v>470.8234187304557</v>
+        <v>1166.104450439656</v>
       </c>
       <c r="D23" t="n">
-        <v>470.8234187304557</v>
+        <v>1166.104450439656</v>
       </c>
       <c r="E23" t="n">
-        <v>470.8234187304557</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="F23" t="n">
-        <v>49.79300668414322</v>
+        <v>751.7642349565529</v>
       </c>
       <c r="G23" t="n">
-        <v>49.79300668414322</v>
+        <v>345.1249141407613</v>
       </c>
       <c r="H23" t="n">
-        <v>49.79300668414322</v>
+        <v>55.61001207628648</v>
       </c>
       <c r="I23" t="n">
         <v>49.79300668414322</v>
       </c>
       <c r="J23" t="n">
-        <v>477.7483931551303</v>
+        <v>150.9725662674011</v>
       </c>
       <c r="K23" t="n">
-        <v>649.9394247649687</v>
+        <v>323.1635978772395</v>
       </c>
       <c r="L23" t="n">
-        <v>878.502839201996</v>
+        <v>551.7270123142667</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.64979938321</v>
+        <v>818.873972495481</v>
       </c>
       <c r="N23" t="n">
-        <v>1418.988069067132</v>
+        <v>1092.212242179403</v>
       </c>
       <c r="O23" t="n">
-        <v>1671.692865363658</v>
+        <v>1572.333749135133</v>
       </c>
       <c r="P23" t="n">
-        <v>1873.397657122775</v>
+        <v>2188.522206851405</v>
       </c>
       <c r="Q23" t="n">
-        <v>2320.484142888685</v>
+        <v>2320.484142888684</v>
       </c>
       <c r="R23" t="n">
         <v>2489.650334207161</v>
@@ -6019,22 +6019,22 @@
         <v>2489.650334207161</v>
       </c>
       <c r="T23" t="n">
-        <v>2416.222524806253</v>
+        <v>2309.826896654737</v>
       </c>
       <c r="U23" t="n">
-        <v>2416.222524806253</v>
+        <v>2309.826896654737</v>
       </c>
       <c r="V23" t="n">
-        <v>2066.384970142734</v>
+        <v>1959.989341991218</v>
       </c>
       <c r="W23" t="n">
-        <v>1682.624669277902</v>
+        <v>1576.229041126386</v>
       </c>
       <c r="X23" t="n">
-        <v>1281.981271446855</v>
+        <v>1576.229041126386</v>
       </c>
       <c r="Y23" t="n">
-        <v>881.0445983949451</v>
+        <v>1576.229041126386</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>49.79300668414322</v>
       </c>
       <c r="I24" t="n">
-        <v>49.79300668414322</v>
+        <v>67.17352516094829</v>
       </c>
       <c r="J24" t="n">
-        <v>346.102035179608</v>
+        <v>363.4825536564131</v>
       </c>
       <c r="K24" t="n">
-        <v>544.9519850281033</v>
+        <v>485.1064694514222</v>
       </c>
       <c r="L24" t="n">
-        <v>727.2509783057793</v>
+        <v>667.4054627290982</v>
       </c>
       <c r="M24" t="n">
-        <v>947.8248365825779</v>
+        <v>887.9793210058967</v>
       </c>
       <c r="N24" t="n">
-        <v>1180.072129740841</v>
+        <v>1120.22661416416</v>
       </c>
       <c r="O24" t="n">
-        <v>1383.534012733539</v>
+        <v>1323.688497156858</v>
       </c>
       <c r="P24" t="n">
-        <v>1539.000219523111</v>
+        <v>1479.15470394643</v>
       </c>
       <c r="Q24" t="n">
-        <v>2028.678144066392</v>
+        <v>1968.832628489711</v>
       </c>
       <c r="R24" t="n">
         <v>2038.282050091411</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1101.679450363371</v>
+        <v>554.4216906841349</v>
       </c>
       <c r="C25" t="n">
-        <v>930.5860779250879</v>
+        <v>383.3283182458514</v>
       </c>
       <c r="D25" t="n">
-        <v>771.0914332479979</v>
+        <v>383.3283182458514</v>
       </c>
       <c r="E25" t="n">
-        <v>610.1806181163174</v>
+        <v>222.4175031141709</v>
       </c>
       <c r="F25" t="n">
-        <v>445.5494922269087</v>
+        <v>57.78637722476213</v>
       </c>
       <c r="G25" t="n">
-        <v>279.2361381698338</v>
+        <v>57.78637722476213</v>
       </c>
       <c r="H25" t="n">
-        <v>137.9597939116477</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="I25" t="n">
         <v>49.79300668414322</v>
       </c>
       <c r="J25" t="n">
-        <v>128.8057277273747</v>
+        <v>128.8057277273744</v>
       </c>
       <c r="K25" t="n">
-        <v>390.0582732114622</v>
+        <v>390.0582732114621</v>
       </c>
       <c r="L25" t="n">
-        <v>786.494916627461</v>
+        <v>786.4949166274607</v>
       </c>
       <c r="M25" t="n">
-        <v>1219.720777048203</v>
+        <v>1219.720777048202</v>
       </c>
       <c r="N25" t="n">
         <v>1641.098273494504</v>
@@ -6165,34 +6165,34 @@
         <v>2030.46913309807</v>
       </c>
       <c r="P25" t="n">
-        <v>2347.219667017765</v>
+        <v>2347.219667017764</v>
       </c>
       <c r="Q25" t="n">
         <v>2489.650334207161</v>
       </c>
       <c r="R25" t="n">
-        <v>2489.650334207161</v>
+        <v>2446.510207591377</v>
       </c>
       <c r="S25" t="n">
-        <v>2489.650334207161</v>
+        <v>2276.448439128748</v>
       </c>
       <c r="T25" t="n">
-        <v>2489.650334207161</v>
+        <v>2040.903403725172</v>
       </c>
       <c r="U25" t="n">
-        <v>2305.414127060571</v>
+        <v>1758.156367381335</v>
       </c>
       <c r="V25" t="n">
-        <v>2031.528382000093</v>
+        <v>1484.270622320857</v>
       </c>
       <c r="W25" t="n">
-        <v>1752.458717508968</v>
+        <v>1205.200957829731</v>
       </c>
       <c r="X25" t="n">
-        <v>1514.114855368651</v>
+        <v>966.8570956894146</v>
       </c>
       <c r="Y25" t="n">
-        <v>1289.379156757416</v>
+        <v>742.1213970781793</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1560.535750158079</v>
+        <v>766.1553261870738</v>
       </c>
       <c r="C26" t="n">
-        <v>1150.411159471349</v>
+        <v>766.1553261870738</v>
       </c>
       <c r="D26" t="n">
-        <v>745.9472295644097</v>
+        <v>766.1553261870738</v>
       </c>
       <c r="E26" t="n">
-        <v>745.9472295644097</v>
+        <v>766.1553261870738</v>
       </c>
       <c r="F26" t="n">
-        <v>745.9472295644097</v>
+        <v>345.1249141407613</v>
       </c>
       <c r="G26" t="n">
-        <v>339.3079087486181</v>
+        <v>345.1249141407613</v>
       </c>
       <c r="H26" t="n">
-        <v>49.79300668414322</v>
+        <v>55.61001207628648</v>
       </c>
       <c r="I26" t="n">
         <v>49.79300668414322</v>
       </c>
       <c r="J26" t="n">
-        <v>150.9725662674011</v>
+        <v>477.7483931551303</v>
       </c>
       <c r="K26" t="n">
-        <v>323.1635978772395</v>
+        <v>1092.05964156974</v>
       </c>
       <c r="L26" t="n">
-        <v>551.7270123142667</v>
+        <v>1320.623056006767</v>
       </c>
       <c r="M26" t="n">
-        <v>818.873972495481</v>
+        <v>1587.770016187982</v>
       </c>
       <c r="N26" t="n">
-        <v>1092.212242179403</v>
+        <v>1861.108285871903</v>
       </c>
       <c r="O26" t="n">
-        <v>1344.917038475929</v>
+        <v>2113.81308216843</v>
       </c>
       <c r="P26" t="n">
-        <v>1778.227733700952</v>
+        <v>2315.517873927546</v>
       </c>
       <c r="Q26" t="n">
-        <v>2320.484142888684</v>
+        <v>2447.479809964826</v>
       </c>
       <c r="R26" t="n">
         <v>2489.650334207161</v>
       </c>
       <c r="S26" t="n">
-        <v>2489.650334207161</v>
+        <v>2401.971510003498</v>
       </c>
       <c r="T26" t="n">
-        <v>2489.650334207161</v>
+        <v>2188.909462758357</v>
       </c>
       <c r="U26" t="n">
-        <v>2489.650334207161</v>
+        <v>1932.016088081177</v>
       </c>
       <c r="V26" t="n">
-        <v>2489.650334207161</v>
+        <v>1582.178533417658</v>
       </c>
       <c r="W26" t="n">
-        <v>2489.650334207161</v>
+        <v>1198.418232552826</v>
       </c>
       <c r="X26" t="n">
-        <v>2089.006936376113</v>
+        <v>1167.091999238984</v>
       </c>
       <c r="Y26" t="n">
-        <v>1970.756929822568</v>
+        <v>766.1553261870738</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>49.79300668414322</v>
       </c>
       <c r="I27" t="n">
-        <v>49.79300668414322</v>
+        <v>67.17352516094829</v>
       </c>
       <c r="J27" t="n">
-        <v>346.102035179608</v>
+        <v>363.4825536564131</v>
       </c>
       <c r="K27" t="n">
-        <v>467.7259509746171</v>
+        <v>485.1064694514222</v>
       </c>
       <c r="L27" t="n">
-        <v>650.0249442522932</v>
+        <v>667.4054627290982</v>
       </c>
       <c r="M27" t="n">
-        <v>969.8538290283428</v>
+        <v>887.9793210058967</v>
       </c>
       <c r="N27" t="n">
-        <v>1586.042286744615</v>
+        <v>1120.22661416416</v>
       </c>
       <c r="O27" t="n">
-        <v>1789.504169737313</v>
+        <v>1323.688497156858</v>
       </c>
       <c r="P27" t="n">
-        <v>1944.970376526885</v>
+        <v>1479.15470394643</v>
       </c>
       <c r="Q27" t="n">
-        <v>2028.678144066392</v>
+        <v>1968.832628489711</v>
       </c>
       <c r="R27" t="n">
         <v>2038.282050091411</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1003.168621166124</v>
+        <v>1050.370622106384</v>
       </c>
       <c r="C28" t="n">
-        <v>832.0752487278401</v>
+        <v>879.2772496681009</v>
       </c>
       <c r="D28" t="n">
-        <v>672.58060405075</v>
+        <v>719.7826049910109</v>
       </c>
       <c r="E28" t="n">
-        <v>511.6697889190695</v>
+        <v>610.1806181163174</v>
       </c>
       <c r="F28" t="n">
-        <v>347.0386630296608</v>
+        <v>445.5494922269087</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7253089725859</v>
+        <v>279.2361381698338</v>
       </c>
       <c r="H28" t="n">
-        <v>49.79300668414322</v>
+        <v>137.9597939116477</v>
       </c>
       <c r="I28" t="n">
         <v>49.79300668414322</v>
       </c>
       <c r="J28" t="n">
-        <v>128.8057277273742</v>
+        <v>128.8057277273744</v>
       </c>
       <c r="K28" t="n">
-        <v>390.0582732114618</v>
+        <v>390.0582732114621</v>
       </c>
       <c r="L28" t="n">
-        <v>786.4949166274605</v>
+        <v>786.4949166274607</v>
       </c>
       <c r="M28" t="n">
         <v>1219.720777048202</v>
@@ -6414,22 +6414,22 @@
         <v>2489.650334207161</v>
       </c>
       <c r="T28" t="n">
-        <v>2489.650334207161</v>
+        <v>2254.105298803584</v>
       </c>
       <c r="U28" t="n">
-        <v>2206.903297863324</v>
+        <v>2254.105298803584</v>
       </c>
       <c r="V28" t="n">
-        <v>1933.017552802846</v>
+        <v>1980.219553743106</v>
       </c>
       <c r="W28" t="n">
-        <v>1653.94788831172</v>
+        <v>1701.149889251981</v>
       </c>
       <c r="X28" t="n">
-        <v>1415.604026171403</v>
+        <v>1462.806027111664</v>
       </c>
       <c r="Y28" t="n">
-        <v>1190.868327560168</v>
+        <v>1238.070328500429</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>864.3815272778127</v>
+        <v>766.1553261870738</v>
       </c>
       <c r="C29" t="n">
-        <v>454.2569365910827</v>
+        <v>766.1553261870738</v>
       </c>
       <c r="D29" t="n">
-        <v>49.79300668414322</v>
+        <v>766.1553261870738</v>
       </c>
       <c r="E29" t="n">
-        <v>49.79300668414322</v>
+        <v>766.1553261870738</v>
       </c>
       <c r="F29" t="n">
-        <v>49.79300668414322</v>
+        <v>345.1249141407613</v>
       </c>
       <c r="G29" t="n">
-        <v>49.79300668414322</v>
+        <v>345.1249141407613</v>
       </c>
       <c r="H29" t="n">
-        <v>49.79300668414322</v>
+        <v>55.61001207628648</v>
       </c>
       <c r="I29" t="n">
         <v>49.79300668414322</v>
@@ -6466,49 +6466,49 @@
         <v>150.9725662674011</v>
       </c>
       <c r="K29" t="n">
-        <v>355.3931007554374</v>
+        <v>323.1635978772395</v>
       </c>
       <c r="L29" t="n">
-        <v>971.5815584717096</v>
+        <v>551.7270123142667</v>
       </c>
       <c r="M29" t="n">
-        <v>1587.770016187982</v>
+        <v>818.873972495481</v>
       </c>
       <c r="N29" t="n">
-        <v>1861.108285871903</v>
+        <v>1092.212242179403</v>
       </c>
       <c r="O29" t="n">
-        <v>2113.81308216843</v>
+        <v>1708.400699895675</v>
       </c>
       <c r="P29" t="n">
-        <v>2315.517873927546</v>
+        <v>1910.105491654791</v>
       </c>
       <c r="Q29" t="n">
-        <v>2447.479809964826</v>
+        <v>2320.484142888684</v>
       </c>
       <c r="R29" t="n">
         <v>2489.650334207161</v>
       </c>
       <c r="S29" t="n">
-        <v>2489.650334207161</v>
+        <v>2401.971510003498</v>
       </c>
       <c r="T29" t="n">
-        <v>2489.650334207161</v>
+        <v>2188.909462758357</v>
       </c>
       <c r="U29" t="n">
-        <v>2489.650334207161</v>
+        <v>1960.780204547442</v>
       </c>
       <c r="V29" t="n">
-        <v>2459.943078690091</v>
+        <v>1960.780204547442</v>
       </c>
       <c r="W29" t="n">
-        <v>2076.18277782526</v>
+        <v>1577.019903682611</v>
       </c>
       <c r="X29" t="n">
-        <v>1675.539379994212</v>
+        <v>1176.376505851563</v>
       </c>
       <c r="Y29" t="n">
-        <v>1274.602706942302</v>
+        <v>1176.376505851563</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>49.79300668414322</v>
       </c>
       <c r="I30" t="n">
-        <v>49.79300668414322</v>
+        <v>67.17352516094829</v>
       </c>
       <c r="J30" t="n">
-        <v>102.4336312049747</v>
+        <v>363.4825536564131</v>
       </c>
       <c r="K30" t="n">
-        <v>224.0575469999838</v>
+        <v>485.1064694514222</v>
       </c>
       <c r="L30" t="n">
-        <v>406.3565402776599</v>
+        <v>667.4054627290982</v>
       </c>
       <c r="M30" t="n">
-        <v>626.9303985544584</v>
+        <v>887.9793210058967</v>
       </c>
       <c r="N30" t="n">
-        <v>1085.345995544059</v>
+        <v>1120.22661416416</v>
       </c>
       <c r="O30" t="n">
-        <v>1701.534453260332</v>
+        <v>1323.688497156858</v>
       </c>
       <c r="P30" t="n">
-        <v>1857.000660049904</v>
+        <v>1479.15470394643</v>
       </c>
       <c r="Q30" t="n">
         <v>1940.708427589411</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1060.64137805147</v>
+        <v>1101.679450363371</v>
       </c>
       <c r="C31" t="n">
-        <v>889.5480056131869</v>
+        <v>930.5860779250879</v>
       </c>
       <c r="D31" t="n">
-        <v>730.0533609360969</v>
+        <v>771.0914332479979</v>
       </c>
       <c r="E31" t="n">
-        <v>569.1425458044164</v>
+        <v>610.1806181163174</v>
       </c>
       <c r="F31" t="n">
-        <v>404.5114199150077</v>
+        <v>445.5494922269087</v>
       </c>
       <c r="G31" t="n">
-        <v>238.1980658579328</v>
+        <v>279.2361381698338</v>
       </c>
       <c r="H31" t="n">
-        <v>96.92172159974663</v>
+        <v>137.9597939116477</v>
       </c>
       <c r="I31" t="n">
         <v>49.79300668414322</v>
@@ -6645,28 +6645,28 @@
         <v>2489.650334207161</v>
       </c>
       <c r="R31" t="n">
-        <v>2489.650334207161</v>
+        <v>2446.510207591377</v>
       </c>
       <c r="S31" t="n">
-        <v>2319.588565744531</v>
+        <v>2397.662630273624</v>
       </c>
       <c r="T31" t="n">
-        <v>2084.043530340955</v>
+        <v>2162.117594870047</v>
       </c>
       <c r="U31" t="n">
-        <v>1801.296493997118</v>
+        <v>1879.370558526211</v>
       </c>
       <c r="V31" t="n">
-        <v>1527.41074893664</v>
+        <v>1605.484813465732</v>
       </c>
       <c r="W31" t="n">
-        <v>1248.341084445515</v>
+        <v>1326.415148974607</v>
       </c>
       <c r="X31" t="n">
-        <v>1248.341084445515</v>
+        <v>1326.415148974607</v>
       </c>
       <c r="Y31" t="n">
-        <v>1248.341084445515</v>
+        <v>1101.679450363371</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1696.26688493629</v>
+        <v>1295.288224900289</v>
       </c>
       <c r="C32" t="n">
-        <v>1696.26688493629</v>
+        <v>885.1636342135589</v>
       </c>
       <c r="D32" t="n">
-        <v>1291.80295502935</v>
+        <v>885.1636342135589</v>
       </c>
       <c r="E32" t="n">
-        <v>877.4627395462472</v>
+        <v>470.8234187304557</v>
       </c>
       <c r="F32" t="n">
-        <v>456.4323274999348</v>
+        <v>49.79300668414322</v>
       </c>
       <c r="G32" t="n">
         <v>49.79300668414322</v>
@@ -6703,25 +6703,25 @@
         <v>477.7483931551303</v>
       </c>
       <c r="K32" t="n">
-        <v>649.9394247649687</v>
+        <v>1092.05964156974</v>
       </c>
       <c r="L32" t="n">
-        <v>878.502839201996</v>
+        <v>1320.623056006767</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.64979938321</v>
+        <v>1587.770016187982</v>
       </c>
       <c r="N32" t="n">
-        <v>1734.112618795762</v>
+        <v>1861.108285871903</v>
       </c>
       <c r="O32" t="n">
-        <v>1986.817415092289</v>
+        <v>2113.81308216843</v>
       </c>
       <c r="P32" t="n">
-        <v>2188.522206851405</v>
+        <v>2315.517873927546</v>
       </c>
       <c r="Q32" t="n">
-        <v>2320.484142888684</v>
+        <v>2447.479809964826</v>
       </c>
       <c r="R32" t="n">
         <v>2489.650334207161</v>
@@ -6730,22 +6730,22 @@
         <v>2489.650334207161</v>
       </c>
       <c r="T32" t="n">
-        <v>2489.650334207161</v>
+        <v>2276.588286962019</v>
       </c>
       <c r="U32" t="n">
-        <v>2489.650334207161</v>
+        <v>2276.588286962019</v>
       </c>
       <c r="V32" t="n">
-        <v>2489.650334207161</v>
+        <v>2276.588286962019</v>
       </c>
       <c r="W32" t="n">
-        <v>2489.650334207161</v>
+        <v>2106.446077616688</v>
       </c>
       <c r="X32" t="n">
-        <v>2106.48806460078</v>
+        <v>2106.446077616688</v>
       </c>
       <c r="Y32" t="n">
-        <v>2106.48806460078</v>
+        <v>1705.509404564778</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>49.79300668414322</v>
       </c>
       <c r="I33" t="n">
-        <v>49.79300668414322</v>
+        <v>67.17352516094829</v>
       </c>
       <c r="J33" t="n">
-        <v>102.4336312049747</v>
+        <v>363.4825536564131</v>
       </c>
       <c r="K33" t="n">
-        <v>224.0575469999838</v>
+        <v>485.1064694514222</v>
       </c>
       <c r="L33" t="n">
-        <v>840.246004716256</v>
+        <v>667.4054627290982</v>
       </c>
       <c r="M33" t="n">
-        <v>1060.819862993055</v>
+        <v>887.9793210058967</v>
       </c>
       <c r="N33" t="n">
-        <v>1293.067156151318</v>
+        <v>1120.22661416416</v>
       </c>
       <c r="O33" t="n">
-        <v>1789.504169737313</v>
+        <v>1323.688497156858</v>
       </c>
       <c r="P33" t="n">
-        <v>1944.970376526885</v>
+        <v>1479.15470394643</v>
       </c>
       <c r="Q33" t="n">
-        <v>2028.678144066392</v>
+        <v>1940.708427589411</v>
       </c>
       <c r="R33" t="n">
         <v>2038.282050091411</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1101.679450363371</v>
+        <v>937.0483244739628</v>
       </c>
       <c r="C34" t="n">
-        <v>930.5860779250879</v>
+        <v>765.9549520356793</v>
       </c>
       <c r="D34" t="n">
-        <v>771.0914332479979</v>
+        <v>606.4603073585893</v>
       </c>
       <c r="E34" t="n">
-        <v>610.1806181163174</v>
+        <v>445.5494922269087</v>
       </c>
       <c r="F34" t="n">
         <v>445.5494922269087</v>
@@ -6858,10 +6858,10 @@
         <v>49.79300668414322</v>
       </c>
       <c r="J34" t="n">
-        <v>128.8057277273744</v>
+        <v>128.8057277273742</v>
       </c>
       <c r="K34" t="n">
-        <v>390.058273211462</v>
+        <v>390.0582732114622</v>
       </c>
       <c r="L34" t="n">
         <v>786.4949166274605</v>
@@ -6885,25 +6885,25 @@
         <v>2489.650334207161</v>
       </c>
       <c r="S34" t="n">
-        <v>2489.650334207161</v>
+        <v>2319.588565744531</v>
       </c>
       <c r="T34" t="n">
-        <v>2489.650334207161</v>
+        <v>2084.043530340955</v>
       </c>
       <c r="U34" t="n">
-        <v>2206.903297863324</v>
+        <v>1801.296493997118</v>
       </c>
       <c r="V34" t="n">
-        <v>2031.528382000093</v>
+        <v>1527.41074893664</v>
       </c>
       <c r="W34" t="n">
-        <v>1752.458717508968</v>
+        <v>1248.341084445515</v>
       </c>
       <c r="X34" t="n">
-        <v>1514.114855368651</v>
+        <v>1248.341084445515</v>
       </c>
       <c r="Y34" t="n">
-        <v>1289.379156757416</v>
+        <v>1023.605385834279</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>917.1717282911916</v>
+        <v>1217.912599739995</v>
       </c>
       <c r="C35" t="n">
-        <v>917.1717282911916</v>
+        <v>807.7880090532655</v>
       </c>
       <c r="D35" t="n">
-        <v>917.1717282911916</v>
+        <v>403.324079146326</v>
       </c>
       <c r="E35" t="n">
-        <v>502.8315128080883</v>
+        <v>403.324079146326</v>
       </c>
       <c r="F35" t="n">
-        <v>81.80110076177584</v>
+        <v>403.324079146326</v>
       </c>
       <c r="G35" t="n">
-        <v>81.80110076177584</v>
+        <v>46.39841444127116</v>
       </c>
       <c r="H35" t="n">
-        <v>40.5814090491279</v>
+        <v>46.39841444127116</v>
       </c>
       <c r="I35" t="n">
         <v>40.5814090491279</v>
@@ -6940,13 +6940,13 @@
         <v>141.7609686323858</v>
       </c>
       <c r="K35" t="n">
-        <v>313.9520002422242</v>
+        <v>631.4797598189743</v>
       </c>
       <c r="L35" t="n">
-        <v>542.5154146792514</v>
+        <v>860.0431742560015</v>
       </c>
       <c r="M35" t="n">
-        <v>898.3334671381799</v>
+        <v>1127.190134437216</v>
       </c>
       <c r="N35" t="n">
         <v>1400.528404121138</v>
@@ -6964,25 +6964,25 @@
         <v>2029.070452456395</v>
       </c>
       <c r="S35" t="n">
-        <v>1941.391628252733</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="T35" t="n">
-        <v>1728.329581007591</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="U35" t="n">
-        <v>1728.329581007591</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="V35" t="n">
-        <v>1728.329581007591</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="W35" t="n">
-        <v>1728.329581007591</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="X35" t="n">
-        <v>1728.329581007591</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="Y35" t="n">
-        <v>1327.392907955681</v>
+        <v>1628.133779404485</v>
       </c>
     </row>
     <row r="36">
@@ -6998,13 +6998,13 @@
         <v>552.7563244037765</v>
       </c>
       <c r="D36" t="n">
-        <v>435.8591666231696</v>
+        <v>435.8591666231689</v>
       </c>
       <c r="E36" t="n">
-        <v>315.3663506154976</v>
+        <v>315.3663506154969</v>
       </c>
       <c r="F36" t="n">
-        <v>206.4064707980021</v>
+        <v>206.4064707980015</v>
       </c>
       <c r="G36" t="n">
         <v>100.5340520092315</v>
@@ -7019,22 +7019,22 @@
         <v>336.8904375445927</v>
       </c>
       <c r="K36" t="n">
-        <v>458.5143533396018</v>
+        <v>535.7403873930873</v>
       </c>
       <c r="L36" t="n">
-        <v>640.8133466172778</v>
+        <v>718.0393806707633</v>
       </c>
       <c r="M36" t="n">
-        <v>1143.008283600235</v>
+        <v>938.6132389475619</v>
       </c>
       <c r="N36" t="n">
-        <v>1375.255576758499</v>
+        <v>1170.860532105825</v>
       </c>
       <c r="O36" t="n">
-        <v>1780.292572102297</v>
+        <v>1374.322415098523</v>
       </c>
       <c r="P36" t="n">
-        <v>1935.758778891869</v>
+        <v>1529.788621888095</v>
       </c>
       <c r="Q36" t="n">
         <v>2019.466546431376</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>863.0247212426655</v>
+        <v>1092.467852728356</v>
       </c>
       <c r="C37" t="n">
-        <v>691.931348804382</v>
+        <v>921.3744802900726</v>
       </c>
       <c r="D37" t="n">
-        <v>532.436704127292</v>
+        <v>761.8798356129826</v>
       </c>
       <c r="E37" t="n">
-        <v>371.5258889956115</v>
+        <v>600.9690204813021</v>
       </c>
       <c r="F37" t="n">
-        <v>206.8947631062028</v>
+        <v>436.3378945918934</v>
       </c>
       <c r="G37" t="n">
-        <v>40.5814090491279</v>
+        <v>270.0245405348185</v>
       </c>
       <c r="H37" t="n">
-        <v>40.5814090491279</v>
+        <v>128.7481962766324</v>
       </c>
       <c r="I37" t="n">
         <v>40.5814090491279</v>
@@ -7119,28 +7119,28 @@
         <v>2029.070452456395</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.930325840611</v>
+        <v>2029.070452456395</v>
       </c>
       <c r="S37" t="n">
-        <v>1815.868557377982</v>
+        <v>1859.008683993766</v>
       </c>
       <c r="T37" t="n">
-        <v>1792.873652879387</v>
+        <v>1859.008683993766</v>
       </c>
       <c r="U37" t="n">
-        <v>1792.873652879387</v>
+        <v>1576.261647649929</v>
       </c>
       <c r="V37" t="n">
-        <v>1792.873652879387</v>
+        <v>1302.375902589451</v>
       </c>
       <c r="W37" t="n">
-        <v>1513.803988388262</v>
+        <v>1302.375902589451</v>
       </c>
       <c r="X37" t="n">
-        <v>1275.460126247945</v>
+        <v>1302.375902589451</v>
       </c>
       <c r="Y37" t="n">
-        <v>1050.72442763671</v>
+        <v>1280.1675591224</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1275.327150518044</v>
+        <v>450.8623443482106</v>
       </c>
       <c r="C38" t="n">
-        <v>865.2025598313139</v>
+        <v>450.8623443482106</v>
       </c>
       <c r="D38" t="n">
-        <v>460.7386299243744</v>
+        <v>46.39841444127117</v>
       </c>
       <c r="E38" t="n">
         <v>46.39841444127117</v>
@@ -7207,19 +7207,19 @@
         <v>1728.329581007592</v>
       </c>
       <c r="U38" t="n">
-        <v>1471.436206330412</v>
+        <v>1594.681379541051</v>
       </c>
       <c r="V38" t="n">
-        <v>1275.327150518044</v>
+        <v>1244.843824877531</v>
       </c>
       <c r="W38" t="n">
-        <v>1275.327150518044</v>
+        <v>861.0835240127001</v>
       </c>
       <c r="X38" t="n">
-        <v>1275.327150518044</v>
+        <v>861.0835240127001</v>
       </c>
       <c r="Y38" t="n">
-        <v>1275.327150518044</v>
+        <v>861.0835240127001</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>40.58140904912791</v>
       </c>
       <c r="I39" t="n">
-        <v>40.58140904912791</v>
+        <v>57.96192752593299</v>
       </c>
       <c r="J39" t="n">
-        <v>336.8904375445927</v>
+        <v>354.2709560213978</v>
       </c>
       <c r="K39" t="n">
-        <v>458.5143533396018</v>
+        <v>535.7403873930882</v>
       </c>
       <c r="L39" t="n">
-        <v>640.8133466172778</v>
+        <v>718.0393806707642</v>
       </c>
       <c r="M39" t="n">
-        <v>861.3872048940764</v>
+        <v>938.6132389475628</v>
       </c>
       <c r="N39" t="n">
-        <v>1093.63449805234</v>
+        <v>1170.860532105826</v>
       </c>
       <c r="O39" t="n">
-        <v>1297.096381045038</v>
+        <v>1374.322415098524</v>
       </c>
       <c r="P39" t="n">
-        <v>1452.56258783461</v>
+        <v>1529.788621888096</v>
       </c>
       <c r="Q39" t="n">
-        <v>1931.496829954396</v>
+        <v>2019.466546431377</v>
       </c>
       <c r="R39" t="n">
         <v>2029.070452456396</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.467852728356</v>
+        <v>410.8676806096317</v>
       </c>
       <c r="C40" t="n">
-        <v>921.3744802900726</v>
+        <v>239.7743081713483</v>
       </c>
       <c r="D40" t="n">
-        <v>761.8798356129826</v>
+        <v>80.27966349425827</v>
       </c>
       <c r="E40" t="n">
-        <v>600.9690204813021</v>
+        <v>80.27966349425827</v>
       </c>
       <c r="F40" t="n">
-        <v>436.3378945918934</v>
+        <v>80.27966349425827</v>
       </c>
       <c r="G40" t="n">
-        <v>270.0245405348185</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="H40" t="n">
-        <v>128.7481962766324</v>
+        <v>40.58140904912791</v>
       </c>
       <c r="I40" t="n">
         <v>40.58140904912791</v>
       </c>
       <c r="J40" t="n">
-        <v>119.5941300923591</v>
+        <v>54.59276646102274</v>
       </c>
       <c r="K40" t="n">
-        <v>380.8466755764467</v>
+        <v>109.5651183593962</v>
       </c>
       <c r="L40" t="n">
-        <v>670.8813843909809</v>
+        <v>506.0017617753948</v>
       </c>
       <c r="M40" t="n">
-        <v>759.1408952974368</v>
+        <v>939.2276221961363</v>
       </c>
       <c r="N40" t="n">
-        <v>1180.518391743738</v>
+        <v>1360.605118642438</v>
       </c>
       <c r="O40" t="n">
-        <v>1569.889251347305</v>
+        <v>1749.975978246004</v>
       </c>
       <c r="P40" t="n">
-        <v>1886.639785266999</v>
+        <v>2012.913745472836</v>
       </c>
       <c r="Q40" t="n">
         <v>2029.070452456396</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.930325840612</v>
+        <v>2029.070452456396</v>
       </c>
       <c r="S40" t="n">
-        <v>1815.868557377983</v>
+        <v>1859.008683993767</v>
       </c>
       <c r="T40" t="n">
-        <v>1580.323521974407</v>
+        <v>1623.463648590191</v>
       </c>
       <c r="U40" t="n">
-        <v>1580.323521974407</v>
+        <v>1340.716612246354</v>
       </c>
       <c r="V40" t="n">
-        <v>1580.323521974407</v>
+        <v>1340.716612246354</v>
       </c>
       <c r="W40" t="n">
-        <v>1580.323521974407</v>
+        <v>1061.646947755228</v>
       </c>
       <c r="X40" t="n">
-        <v>1504.903257733636</v>
+        <v>823.3030856149114</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.1675591224</v>
+        <v>598.5673870036761</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>450.0428467692919</v>
+        <v>1081.779307611304</v>
       </c>
       <c r="C41" t="n">
-        <v>39.91825608256197</v>
+        <v>1081.779307611304</v>
       </c>
       <c r="D41" t="n">
-        <v>39.91825608256197</v>
+        <v>1081.779307611304</v>
       </c>
       <c r="E41" t="n">
-        <v>39.91825608256197</v>
+        <v>667.4390921282009</v>
       </c>
       <c r="F41" t="n">
-        <v>39.91825608256197</v>
+        <v>246.4086800818884</v>
       </c>
       <c r="G41" t="n">
-        <v>39.91825608256197</v>
+        <v>246.4086800818884</v>
       </c>
       <c r="H41" t="n">
         <v>39.91825608256197</v>
@@ -7417,19 +7417,19 @@
         <v>307.471841883515</v>
       </c>
       <c r="L41" t="n">
-        <v>536.0352563205422</v>
+        <v>536.035256320542</v>
       </c>
       <c r="M41" t="n">
-        <v>803.1822165017566</v>
+        <v>803.1822165017561</v>
       </c>
       <c r="N41" t="n">
         <v>1076.520486185678</v>
       </c>
       <c r="O41" t="n">
-        <v>1329.225282482205</v>
+        <v>1329.225282482204</v>
       </c>
       <c r="P41" t="n">
-        <v>1530.930074241321</v>
+        <v>1530.93007424132</v>
       </c>
       <c r="Q41" t="n">
         <v>1662.8920102786</v>
@@ -7441,22 +7441,22 @@
         <v>1705.062534520935</v>
       </c>
       <c r="T41" t="n">
-        <v>1705.062534520935</v>
+        <v>1492.000487275794</v>
       </c>
       <c r="U41" t="n">
-        <v>1448.169159843755</v>
+        <v>1492.000487275794</v>
       </c>
       <c r="V41" t="n">
-        <v>1098.331605180236</v>
+        <v>1492.000487275794</v>
       </c>
       <c r="W41" t="n">
-        <v>714.5713043154046</v>
+        <v>1492.000487275794</v>
       </c>
       <c r="X41" t="n">
-        <v>714.5713043154046</v>
+        <v>1492.000487275794</v>
       </c>
       <c r="Y41" t="n">
-        <v>714.5713043154046</v>
+        <v>1492.000487275794</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>680.2712372961223</v>
+        <v>465.4389386898562</v>
       </c>
       <c r="C42" t="n">
-        <v>546.276166045068</v>
+        <v>331.4438674388019</v>
       </c>
       <c r="D42" t="n">
-        <v>429.3790082644604</v>
+        <v>214.5467096581943</v>
       </c>
       <c r="E42" t="n">
-        <v>308.8861922567884</v>
+        <v>94.05389365052226</v>
       </c>
       <c r="F42" t="n">
-        <v>199.9263124392929</v>
+        <v>94.05389365052226</v>
       </c>
       <c r="G42" t="n">
         <v>94.05389365052226</v>
@@ -7487,31 +7487,31 @@
         <v>34.1012506904187</v>
       </c>
       <c r="I42" t="n">
-        <v>34.1012506904187</v>
+        <v>51.48176916722377</v>
       </c>
       <c r="J42" t="n">
-        <v>86.7418752112502</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K42" t="n">
-        <v>208.3657910062593</v>
+        <v>469.4147134576976</v>
       </c>
       <c r="L42" t="n">
-        <v>390.6647842839353</v>
+        <v>651.7137067353736</v>
       </c>
       <c r="M42" t="n">
-        <v>611.2386425607339</v>
+        <v>872.2875650121722</v>
       </c>
       <c r="N42" t="n">
-        <v>843.4859357189973</v>
+        <v>1104.534858170436</v>
       </c>
       <c r="O42" t="n">
-        <v>1046.947818711695</v>
+        <v>1307.996741163133</v>
       </c>
       <c r="P42" t="n">
-        <v>1468.950796005626</v>
+        <v>1463.462947952706</v>
       </c>
       <c r="Q42" t="n">
-        <v>1695.458628495917</v>
+        <v>1607.488912018935</v>
       </c>
       <c r="R42" t="n">
         <v>1705.062534520935</v>
@@ -7520,22 +7520,22 @@
         <v>1705.062534520935</v>
       </c>
       <c r="T42" t="n">
-        <v>1550.225761459007</v>
+        <v>1565.691886461922</v>
       </c>
       <c r="U42" t="n">
-        <v>1352.948483090442</v>
+        <v>1368.414608093357</v>
       </c>
       <c r="V42" t="n">
-        <v>1139.236956083476</v>
+        <v>1154.703081086391</v>
       </c>
       <c r="W42" t="n">
-        <v>926.0037878198044</v>
+        <v>941.4699128227201</v>
       </c>
       <c r="X42" t="n">
-        <v>749.6778059586973</v>
+        <v>765.1439309616128</v>
       </c>
       <c r="Y42" t="n">
-        <v>749.6778059586973</v>
+        <v>605.7419713254428</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>363.1404012581589</v>
+        <v>644.6243900142591</v>
       </c>
       <c r="C43" t="n">
-        <v>192.0470288198754</v>
+        <v>473.5310175759756</v>
       </c>
       <c r="D43" t="n">
-        <v>34.1012506904187</v>
+        <v>314.0363728988856</v>
       </c>
       <c r="E43" t="n">
-        <v>34.1012506904187</v>
+        <v>200.4146047474936</v>
       </c>
       <c r="F43" t="n">
-        <v>34.1012506904187</v>
+        <v>200.4146047474936</v>
       </c>
       <c r="G43" t="n">
         <v>34.1012506904187</v>
@@ -7569,52 +7569,52 @@
         <v>34.1012506904187</v>
       </c>
       <c r="J43" t="n">
-        <v>113.1139717336499</v>
+        <v>48.11260810231353</v>
       </c>
       <c r="K43" t="n">
-        <v>374.3665172177375</v>
+        <v>103.084960000687</v>
       </c>
       <c r="L43" t="n">
-        <v>770.8031606337362</v>
+        <v>400.3014437470004</v>
       </c>
       <c r="M43" t="n">
-        <v>859.0626715401922</v>
+        <v>822.3044210409319</v>
       </c>
       <c r="N43" t="n">
-        <v>948.4058665389083</v>
+        <v>1243.681917487233</v>
       </c>
       <c r="O43" t="n">
-        <v>1337.776726142475</v>
+        <v>1633.0527770908</v>
       </c>
       <c r="P43" t="n">
-        <v>1562.631867331539</v>
+        <v>1688.905827537376</v>
       </c>
       <c r="Q43" t="n">
         <v>1705.062534520935</v>
       </c>
       <c r="R43" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="S43" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="T43" t="n">
-        <v>1661.922407905151</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="U43" t="n">
-        <v>1379.175371561314</v>
+        <v>1422.315498177098</v>
       </c>
       <c r="V43" t="n">
-        <v>1105.289626500836</v>
+        <v>1148.42975311662</v>
       </c>
       <c r="W43" t="n">
-        <v>826.2199620097108</v>
+        <v>869.3600886254944</v>
       </c>
       <c r="X43" t="n">
-        <v>587.8760998693942</v>
+        <v>869.3600886254944</v>
       </c>
       <c r="Y43" t="n">
-        <v>363.1404012581589</v>
+        <v>644.6243900142591</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>440.7405715062102</v>
+        <v>1047.525762012708</v>
       </c>
       <c r="C44" t="n">
-        <v>440.7405715062102</v>
+        <v>1047.525762012708</v>
       </c>
       <c r="D44" t="n">
-        <v>440.7405715062102</v>
+        <v>1047.525762012708</v>
       </c>
       <c r="E44" t="n">
-        <v>440.7405715062102</v>
+        <v>1047.525762012708</v>
       </c>
       <c r="F44" t="n">
-        <v>440.7405715062102</v>
+        <v>730.2554735706851</v>
       </c>
       <c r="G44" t="n">
-        <v>34.1012506904187</v>
+        <v>323.6161527548936</v>
       </c>
       <c r="H44" t="n">
         <v>34.1012506904187</v>
@@ -7648,13 +7648,13 @@
         <v>34.1012506904187</v>
       </c>
       <c r="J44" t="n">
-        <v>135.2808102736766</v>
+        <v>135.2808102736761</v>
       </c>
       <c r="K44" t="n">
-        <v>307.471841883515</v>
+        <v>307.4718418835145</v>
       </c>
       <c r="L44" t="n">
-        <v>536.035256320542</v>
+        <v>536.0352563205417</v>
       </c>
       <c r="M44" t="n">
         <v>803.1822165017561</v>
@@ -7678,22 +7678,22 @@
         <v>1705.062534520935</v>
       </c>
       <c r="T44" t="n">
-        <v>1492.000487275794</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="U44" t="n">
-        <v>1492.000487275794</v>
+        <v>1448.169159843755</v>
       </c>
       <c r="V44" t="n">
-        <v>1492.000487275794</v>
+        <v>1448.169159843755</v>
       </c>
       <c r="W44" t="n">
-        <v>1108.240186410962</v>
+        <v>1448.169159843755</v>
       </c>
       <c r="X44" t="n">
-        <v>707.5967885799148</v>
+        <v>1047.525762012708</v>
       </c>
       <c r="Y44" t="n">
-        <v>440.7405715062102</v>
+        <v>1047.525762012708</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.7434777193711</v>
+        <v>514.446175547248</v>
       </c>
       <c r="C45" t="n">
-        <v>228.7484064683168</v>
+        <v>380.4511042961938</v>
       </c>
       <c r="D45" t="n">
-        <v>111.8512486877092</v>
+        <v>263.5539465155862</v>
       </c>
       <c r="E45" t="n">
-        <v>111.8512486877092</v>
+        <v>143.0611305079141</v>
       </c>
       <c r="F45" t="n">
         <v>34.1012506904187</v>
@@ -7727,52 +7727,52 @@
         <v>51.48176916722377</v>
       </c>
       <c r="J45" t="n">
-        <v>104.1223936880553</v>
+        <v>347.7907976626885</v>
       </c>
       <c r="K45" t="n">
-        <v>225.7463094830644</v>
+        <v>469.4147134576976</v>
       </c>
       <c r="L45" t="n">
-        <v>647.7492867769959</v>
+        <v>651.7137067353736</v>
       </c>
       <c r="M45" t="n">
-        <v>868.3231450537944</v>
+        <v>872.2875650121722</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.570438212058</v>
+        <v>1104.534858170436</v>
       </c>
       <c r="O45" t="n">
-        <v>1456.284654166837</v>
+        <v>1307.996741163133</v>
       </c>
       <c r="P45" t="n">
-        <v>1611.750860956409</v>
+        <v>1463.462947952706</v>
       </c>
       <c r="Q45" t="n">
-        <v>1695.458628495917</v>
+        <v>1607.488912018935</v>
       </c>
       <c r="R45" t="n">
         <v>1705.062534520935</v>
       </c>
       <c r="S45" t="n">
-        <v>1617.833198553365</v>
+        <v>1705.062534520935</v>
       </c>
       <c r="T45" t="n">
-        <v>1462.996425491437</v>
+        <v>1614.699123319314</v>
       </c>
       <c r="U45" t="n">
-        <v>1265.719147122872</v>
+        <v>1417.421844950749</v>
       </c>
       <c r="V45" t="n">
-        <v>1052.007620115906</v>
+        <v>1203.710317943783</v>
       </c>
       <c r="W45" t="n">
-        <v>838.7744518522348</v>
+        <v>990.4771496801118</v>
       </c>
       <c r="X45" t="n">
-        <v>662.4484699911277</v>
+        <v>814.1511678190046</v>
       </c>
       <c r="Y45" t="n">
-        <v>503.0465103549577</v>
+        <v>654.7492081828346</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1085.987694369647</v>
+        <v>336.2884100802854</v>
       </c>
       <c r="C46" t="n">
-        <v>914.8943219313635</v>
+        <v>336.2884100802854</v>
       </c>
       <c r="D46" t="n">
-        <v>755.3996772542735</v>
+        <v>336.2884100802854</v>
       </c>
       <c r="E46" t="n">
-        <v>594.4888621225929</v>
+        <v>175.3775949486048</v>
       </c>
       <c r="F46" t="n">
-        <v>429.8577362331841</v>
+        <v>175.3775949486048</v>
       </c>
       <c r="G46" t="n">
-        <v>263.5443821761093</v>
+        <v>175.3775949486048</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2680379179232</v>
+        <v>34.1012506904187</v>
       </c>
       <c r="I46" t="n">
         <v>34.1012506904187</v>
       </c>
       <c r="J46" t="n">
-        <v>113.1139717336499</v>
+        <v>48.11260810231353</v>
       </c>
       <c r="K46" t="n">
-        <v>374.3665172177375</v>
+        <v>103.084960000687</v>
       </c>
       <c r="L46" t="n">
-        <v>770.8031606337362</v>
+        <v>400.3014437470004</v>
       </c>
       <c r="M46" t="n">
-        <v>859.0626715401922</v>
+        <v>822.3044210409319</v>
       </c>
       <c r="N46" t="n">
-        <v>948.4058665389083</v>
+        <v>1243.681917487233</v>
       </c>
       <c r="O46" t="n">
-        <v>1337.776726142475</v>
+        <v>1633.0527770908</v>
       </c>
       <c r="P46" t="n">
-        <v>1654.527260062169</v>
+        <v>1688.905827537376</v>
       </c>
       <c r="Q46" t="n">
         <v>1705.062534520935</v>
@@ -7836,22 +7836,22 @@
         <v>1535.000766058306</v>
       </c>
       <c r="T46" t="n">
-        <v>1535.000766058306</v>
+        <v>1301.679224637169</v>
       </c>
       <c r="U46" t="n">
-        <v>1535.000766058306</v>
+        <v>1301.679224637169</v>
       </c>
       <c r="V46" t="n">
-        <v>1535.000766058306</v>
+        <v>1027.793479576691</v>
       </c>
       <c r="W46" t="n">
-        <v>1535.000766058306</v>
+        <v>748.7238150855651</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.423099374927</v>
+        <v>748.7238150855651</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.687400763691</v>
+        <v>523.9881164743298</v>
       </c>
     </row>
   </sheetData>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.76545843403778</v>
+        <v>2.209379164537701</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>71.7592178795131</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>149.7857707108116</v>
+        <v>341.712333085277</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>216.9282339043816</v>
       </c>
       <c r="M13" t="n">
-        <v>337.1146125126014</v>
+        <v>337.1146125126015</v>
       </c>
       <c r="N13" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>133.6143369304952</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>153.7902353152342</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>242.125236380056</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>60.92747123911371</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>225.433703725364</v>
+        <v>236.8922290078689</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>320.7351106835864</v>
+        <v>192.4566590915248</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>217.7214172468013</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>108.9881942209892</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>272.6743877017114</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>166.5450733490768</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>7.010078320881505</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
@@ -9342,7 +9342,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>320.7351106835864</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>320.7351106835866</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>301.7505595861214</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>79.91202233657901</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>60.45001573402151</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9570,16 +9570,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N22" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>318.2573327462026</v>
+        <v>197.7179563137131</v>
       </c>
       <c r="P22" t="n">
-        <v>209.176481596218</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>229.7138491507107</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>418.6703696536929</v>
       </c>
       <c r="Q23" t="n">
-        <v>318.3076259885159</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.209379164537701</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>78.00609500352144</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>60.45001573402129</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9810,7 +9810,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O25" t="n">
-        <v>318.2573327462026</v>
+        <v>318.2573327462022</v>
       </c>
       <c r="P25" t="n">
         <v>263.5328115890082</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>446.5860775805773</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>233.9453570362697</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.209379164537701</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9962,10 +9962,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>100.2576025244961</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>387.8193581394027</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>60.45001573402129</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195573</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
         <v>208.3638319047618</v>
@@ -10041,7 +10041,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>348.4508580952378</v>
       </c>
       <c r="N28" t="n">
         <v>335.3881832803894</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>32.55505341232114</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>391.5404477568132</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>352.5671692273313</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>367.1552135552989</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>281.2290052491051</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.209379164537701</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>228.4528321528662</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>416.8955300238127</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>381.6625819227005</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10351,7 +10351,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>446.5860775805773</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>318.3076259885153</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.209379164537701</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>438.2721863016124</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>295.9344753467644</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>381.6625819227005</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>320.735110683586</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>89.56675987647901</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>231.1683508071071</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>78.00609500352073</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>284.4657360668274</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>203.6112245970711</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.209379164537701</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>60.45001573402158</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>399.2186611922008</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>209.6739157914733</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>209.1764815962182</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.209379164537701</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>269.2290611155142</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>144.2424898492757</v>
+        <v>60.92747123911371</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>317.1506174091142</v>
+        <v>216.9282339043817</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>337.1146125126014</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>170.7091825681695</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>242.125236380056</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>153.790235315234</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>60.92747123911371</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>216.9282339043817</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>337.1146125126014</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>34.72582573253237</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,16 +23260,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>402.5729276076336</v>
@@ -23278,7 +23278,7 @@
         <v>286.6197530438301</v>
       </c>
       <c r="I11" t="n">
-        <v>5.758835338221829</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>15.8430045347212</v>
+        <v>86.80203596162579</v>
       </c>
       <c r="T11" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.324440930408</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>115.7173893458895</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>65.96917523963862</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>104.813694600883</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>15.31146375288614</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S13" t="n">
         <v>168.3611507780025</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.71691526836622</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.32526960461803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>331.5323908520361</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>402.5729276076336</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>86.80203596162579</v>
+        <v>41.8857832706781</v>
       </c>
       <c r="T14" t="n">
         <v>210.9314267726901</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>42.79735913320911</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3045055848791</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>119.0479763961048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23661,10 +23661,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.6502205165041</v>
@@ -23673,7 +23673,7 @@
         <v>139.8635808156043</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>119.4193495078192</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.0870961207095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,16 +23743,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>402.5729276076336</v>
+        <v>283.3878667778509</v>
       </c>
       <c r="H17" t="n">
         <v>286.6197530438301</v>
       </c>
       <c r="I17" t="n">
-        <v>5.758835338221829</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V17" t="n">
-        <v>149.563688835516</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I19" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>42.70872534962579</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T19" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>109.5763641033289</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>147.4393748390694</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>78.59848963547591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>86.80203596162579</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>346.6330357394456</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>71.22306560710319</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.3611507780025</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>95.64710428389753</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>402.5729276076336</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>5.758835338221829</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>86.80203596162579</v>
       </c>
       <c r="T23" t="n">
-        <v>138.2378954657914</v>
+        <v>32.90622359579049</v>
       </c>
       <c r="U23" t="n">
         <v>254.324440930408</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.9501439803915</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>97.52572090527485</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>5.758835338221829</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>86.80203596162579</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>365.6239928720327</v>
       </c>
       <c r="Y26" t="n">
-        <v>279.8597998333814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>50.79573997441719</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>10.24060155004602</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>168.3611507780025</v>
       </c>
       <c r="T28" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9195659803985</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>402.5729276076336</v>
       </c>
       <c r="H29" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>5.758835338221829</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>86.80203596162579</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.324440930408</v>
+        <v>28.47647530160242</v>
       </c>
       <c r="V29" t="n">
-        <v>316.9289961549854</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>40.62769158878204</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.70872534962579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>120.0020492334267</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.5729276076336</v>
       </c>
       <c r="H32" t="n">
         <v>286.6197530438301</v>
@@ -24970,7 +24970,7 @@
         <v>86.80203596162579</v>
       </c>
       <c r="T32" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.324440930408</v>
@@ -24979,13 +24979,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>211.4819106043053</v>
       </c>
       <c r="X32" t="n">
-        <v>17.30631694241987</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>100.1312185833905</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>42.70872534962579</v>
       </c>
       <c r="S34" t="n">
-        <v>168.3611507780025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.1895850495404</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>97.52572090527539</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,25 +25156,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.5729276076336</v>
+        <v>49.21651954962937</v>
       </c>
       <c r="H35" t="n">
-        <v>245.8122582483086</v>
+        <v>286.6197530438301</v>
       </c>
       <c r="I35" t="n">
-        <v>5.758835338221829</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>86.80203596162579</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U35" t="n">
         <v>254.324440930408</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.8635808156043</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.28511935522941</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>210.4246295959312</v>
+        <v>233.1895850495404</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>200.5020815927429</v>
       </c>
     </row>
     <row r="38">
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -25447,13 +25447,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>122.0127214785327</v>
       </c>
       <c r="V38" t="n">
-        <v>152.1912138626397</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>125.3489486158251</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.8635808156043</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9195659803985</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>161.2943619205499</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>144.2357948971929</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>402.5729276076336</v>
       </c>
       <c r="H41" t="n">
-        <v>286.6197530438301</v>
+        <v>82.19423328449693</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>86.80203596162579</v>
       </c>
       <c r="T41" t="n">
-        <v>210.9314267726901</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.324440930408</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>70.18749933328155</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>104.813694600883</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>86.35704260789379</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>15.31146375288631</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25791,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.533377882156913</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>46.8161565104856</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6502205165041</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>139.8635808156043</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>42.70872534962579</v>
       </c>
       <c r="S43" t="n">
         <v>168.3611507780025</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>102.7225223682468</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.6197530438301</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>5.758835338221829</v>
@@ -25918,22 +25918,22 @@
         <v>86.80203596162579</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.9314267726901</v>
       </c>
       <c r="U44" t="n">
-        <v>254.324440930408</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.7396514184233</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25952,10 +25952,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>30.89778300200287</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>104.813694600883</v>
@@ -25994,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>86.35704260789379</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>63.82862824170434</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6502205165041</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.28511935522941</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.1895850495404</v>
+        <v>2.201259042614311</v>
       </c>
       <c r="U46" t="n">
         <v>279.9195659803985</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>199.7485335023676</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382396.0330160782</v>
+        <v>382396.0330160781</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382396.0330160782</v>
+        <v>382396.0330160781</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>446999.1292544588</v>
+        <v>446999.1292544587</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>446999.1292544589</v>
+        <v>446999.1292544588</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>512163.4050586529</v>
+        <v>512163.405058653</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>512163.4050586532</v>
+        <v>512163.405058653</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>382396.0330160782</v>
+        <v>382396.0330160781</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469807.0309616039</v>
+      </c>
+      <c r="C2" t="n">
         <v>469807.0309616041</v>
       </c>
-      <c r="C2" t="n">
-        <v>469807.0309616039</v>
-      </c>
       <c r="D2" t="n">
-        <v>469807.0309616039</v>
+        <v>469807.030961604</v>
       </c>
       <c r="E2" t="n">
         <v>258112.3858045334</v>
@@ -26328,34 +26328,34 @@
         <v>258112.3858045334</v>
       </c>
       <c r="G2" t="n">
-        <v>291386.5960222203</v>
+        <v>291386.5960222206</v>
       </c>
       <c r="H2" t="n">
+        <v>291386.5960222205</v>
+      </c>
+      <c r="I2" t="n">
+        <v>324949.8451239552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>324949.8451239552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>324949.8451239552</v>
+      </c>
+      <c r="L2" t="n">
+        <v>324949.8451239552</v>
+      </c>
+      <c r="M2" t="n">
         <v>291386.5960222204</v>
       </c>
-      <c r="I2" t="n">
-        <v>324949.8451239553</v>
-      </c>
-      <c r="J2" t="n">
-        <v>324949.8451239551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>324949.8451239551</v>
-      </c>
-      <c r="L2" t="n">
-        <v>324949.8451239551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>291386.5960222205</v>
-      </c>
       <c r="N2" t="n">
-        <v>291386.5960222204</v>
+        <v>291386.5960222207</v>
       </c>
       <c r="O2" t="n">
-        <v>258112.3858045333</v>
+        <v>258112.3858045334</v>
       </c>
       <c r="P2" t="n">
-        <v>258112.3858045333</v>
+        <v>258112.3858045334</v>
       </c>
     </row>
     <row r="3">
@@ -26426,37 +26426,37 @@
         <v>350872.3040056569</v>
       </c>
       <c r="E4" t="n">
+        <v>17848.15894110797</v>
+      </c>
+      <c r="F4" t="n">
         <v>17848.15894110796</v>
-      </c>
-      <c r="F4" t="n">
-        <v>17848.15894110797</v>
       </c>
       <c r="G4" t="n">
         <v>35478.64724027404</v>
       </c>
       <c r="H4" t="n">
-        <v>35478.64724027403</v>
+        <v>35478.64724027404</v>
       </c>
       <c r="I4" t="n">
-        <v>53262.28407789877</v>
+        <v>53262.28407789876</v>
       </c>
       <c r="J4" t="n">
-        <v>53262.28407789877</v>
+        <v>53262.28407789876</v>
       </c>
       <c r="K4" t="n">
         <v>53262.28407789877</v>
       </c>
       <c r="L4" t="n">
-        <v>53262.28407789875</v>
+        <v>53262.28407789877</v>
       </c>
       <c r="M4" t="n">
-        <v>35478.64724027402</v>
+        <v>35478.64724027401</v>
       </c>
       <c r="N4" t="n">
         <v>35478.64724027405</v>
       </c>
       <c r="O4" t="n">
-        <v>17848.15894110796</v>
+        <v>17848.15894110797</v>
       </c>
       <c r="P4" t="n">
         <v>17848.15894110796</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>37131.59695614576</v>
+        <v>37131.59695614577</v>
       </c>
       <c r="F5" t="n">
         <v>37131.59695614576</v>
@@ -26490,7 +26490,7 @@
         <v>42056.51730876476</v>
       </c>
       <c r="I5" t="n">
-        <v>49057.3315113764</v>
+        <v>49057.33151137639</v>
       </c>
       <c r="J5" t="n">
         <v>49057.33151137639</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85307.12695594726</v>
+        <v>85298.32727031766</v>
       </c>
       <c r="C6" t="n">
-        <v>85307.12695594702</v>
+        <v>85298.32727031784</v>
       </c>
       <c r="D6" t="n">
-        <v>85307.12695594708</v>
+        <v>85298.32727031772</v>
       </c>
       <c r="E6" t="n">
-        <v>-337438.1850814192</v>
+        <v>-338176.966302073</v>
       </c>
       <c r="F6" t="n">
-        <v>203132.6299072797</v>
+        <v>202393.8486866259</v>
       </c>
       <c r="G6" t="n">
-        <v>191650.0039263463</v>
+        <v>191025.9613616159</v>
       </c>
       <c r="H6" t="n">
-        <v>213851.4314731816</v>
+        <v>213227.388908451</v>
       </c>
       <c r="I6" t="n">
-        <v>192010.7638509188</v>
+        <v>191502.4566279182</v>
       </c>
       <c r="J6" t="n">
-        <v>222630.22953468</v>
+        <v>222121.9223116795</v>
       </c>
       <c r="K6" t="n">
-        <v>222630.2295346799</v>
+        <v>222121.9223116794</v>
       </c>
       <c r="L6" t="n">
-        <v>222630.22953468</v>
+        <v>222121.9223116794</v>
       </c>
       <c r="M6" t="n">
-        <v>136318.9177229474</v>
+        <v>135694.8751582166</v>
       </c>
       <c r="N6" t="n">
-        <v>213851.4314731816</v>
+        <v>213227.3889084512</v>
       </c>
       <c r="O6" t="n">
-        <v>203132.6299072796</v>
+        <v>202393.8486866259</v>
       </c>
       <c r="P6" t="n">
-        <v>203132.6299072796</v>
+        <v>202393.8486866259</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.2656336302337</v>
+        <v>426.2656336302338</v>
       </c>
       <c r="F4" t="n">
         <v>426.2656336302338</v>
@@ -26810,7 +26810,7 @@
         <v>507.2676131140988</v>
       </c>
       <c r="I4" t="n">
-        <v>622.4125835517902</v>
+        <v>622.4125835517901</v>
       </c>
       <c r="J4" t="n">
         <v>622.4125835517901</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>426.2656336302338</v>
+        <v>426.2656336302339</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>426.2656336302338</v>
+        <v>426.2656336302339</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>17.55607926950007</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>299.3020489853179</v>
+        <v>124.931565880353</v>
       </c>
       <c r="K12" t="n">
         <v>122.8524401969789</v>
@@ -35509,7 +35509,7 @@
         <v>157.0365725147195</v>
       </c>
       <c r="Q12" t="n">
-        <v>234.3390712557684</v>
+        <v>426.2656336302338</v>
       </c>
       <c r="R12" t="n">
         <v>9.700915176786232</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.81082933659718</v>
+        <v>14.15288627464124</v>
       </c>
       <c r="K13" t="n">
-        <v>263.891460084937</v>
+        <v>55.52762818017518</v>
       </c>
       <c r="L13" t="n">
-        <v>83.29043654643999</v>
+        <v>300.2186704508216</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2656336302337</v>
+        <v>426.2656336302338</v>
       </c>
       <c r="N13" t="n">
         <v>425.633834794244</v>
       </c>
       <c r="O13" t="n">
-        <v>208.6609027737537</v>
+        <v>393.303898589461</v>
       </c>
       <c r="P13" t="n">
         <v>56.41722267330926</v>
       </c>
       <c r="Q13" t="n">
-        <v>143.8693607973701</v>
+        <v>16.3199060439992</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>17.55607926950007</v>
       </c>
       <c r="J15" t="n">
-        <v>53.17234800083991</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K15" t="n">
-        <v>276.6426755122131</v>
+        <v>122.8524401969789</v>
       </c>
       <c r="L15" t="n">
-        <v>426.2656336302338</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M15" t="n">
         <v>222.8018770472713</v>
@@ -35746,10 +35746,10 @@
         <v>157.0365725147195</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.55330054495678</v>
+        <v>145.4807717840705</v>
       </c>
       <c r="R15" t="n">
-        <v>9.700915176786232</v>
+        <v>98.55921464848447</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.81082933659718</v>
+        <v>14.15288627464124</v>
       </c>
       <c r="K16" t="n">
-        <v>263.891460084937</v>
+        <v>55.52762818017518</v>
       </c>
       <c r="L16" t="n">
         <v>400.4410539555542</v>
       </c>
       <c r="M16" t="n">
-        <v>314.5847248429964</v>
+        <v>326.0432501255012</v>
       </c>
       <c r="N16" t="n">
-        <v>90.24565151385461</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O16" t="n">
-        <v>75.04656584325843</v>
+        <v>393.303898589461</v>
       </c>
       <c r="P16" t="n">
-        <v>319.9500342623174</v>
+        <v>56.41722267330926</v>
       </c>
       <c r="Q16" t="n">
-        <v>143.8693607973701</v>
+        <v>16.3199060439992</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>422.9366860202106</v>
+        <v>294.6582344281489</v>
       </c>
       <c r="K17" t="n">
         <v>173.9303349594327</v>
@@ -35907,7 +35907,7 @@
         <v>133.2948848861408</v>
       </c>
       <c r="R17" t="n">
-        <v>42.59648913367182</v>
+        <v>170.8749407257336</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>17.55607926950007</v>
       </c>
       <c r="J18" t="n">
-        <v>270.8937652476412</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K18" t="n">
-        <v>122.8524401969789</v>
+        <v>231.8406344179681</v>
       </c>
       <c r="L18" t="n">
         <v>184.1403972501778</v>
@@ -35974,7 +35974,7 @@
         <v>222.8018770472713</v>
       </c>
       <c r="N18" t="n">
-        <v>234.5932254123874</v>
+        <v>507.2676131140988</v>
       </c>
       <c r="O18" t="n">
         <v>205.5170535279774</v>
@@ -35983,7 +35983,7 @@
         <v>157.0365725147195</v>
       </c>
       <c r="Q18" t="n">
-        <v>494.6241662053343</v>
+        <v>84.55330054495678</v>
       </c>
       <c r="R18" t="n">
         <v>98.55921464848447</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>14.15288627464124</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K19" t="n">
-        <v>222.072701529252</v>
+        <v>263.891460084937</v>
       </c>
       <c r="L19" t="n">
         <v>400.4410539555542</v>
       </c>
       <c r="M19" t="n">
-        <v>89.15102111763233</v>
+        <v>437.6018792128702</v>
       </c>
       <c r="N19" t="n">
-        <v>425.633834794244</v>
+        <v>97.25572983473612</v>
       </c>
       <c r="O19" t="n">
         <v>393.303898589461</v>
@@ -36062,7 +36062,7 @@
         <v>319.9500342623174</v>
       </c>
       <c r="Q19" t="n">
-        <v>143.8693607973701</v>
+        <v>16.3199060439992</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2015753366241</v>
+        <v>422.9366860202106</v>
       </c>
       <c r="K20" t="n">
         <v>173.9303349594327</v>
@@ -36141,7 +36141,7 @@
         <v>203.7422138980972</v>
       </c>
       <c r="Q20" t="n">
-        <v>454.0299955697274</v>
+        <v>133.2948848861408</v>
       </c>
       <c r="R20" t="n">
         <v>42.59648913367182</v>
@@ -36214,16 +36214,16 @@
         <v>234.5932254123874</v>
       </c>
       <c r="O21" t="n">
-        <v>507.2676131140988</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P21" t="n">
         <v>157.0365725147195</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.4653228815358</v>
+        <v>494.6241662053343</v>
       </c>
       <c r="R21" t="n">
-        <v>98.55921464848447</v>
+        <v>70.15093091080774</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>14.15288627464124</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K22" t="n">
-        <v>55.52762818017518</v>
+        <v>263.891460084937</v>
       </c>
       <c r="L22" t="n">
         <v>400.4410539555542</v>
@@ -36290,16 +36290,16 @@
         <v>437.6018792128702</v>
       </c>
       <c r="N22" t="n">
-        <v>425.633834794244</v>
+        <v>90.24565151385461</v>
       </c>
       <c r="O22" t="n">
-        <v>393.303898589461</v>
+        <v>272.7645221569715</v>
       </c>
       <c r="P22" t="n">
-        <v>265.5937042695272</v>
+        <v>319.9500342623174</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.3199060439992</v>
+        <v>143.8693607973701</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>432.2781681525122</v>
+        <v>102.2015753366241</v>
       </c>
       <c r="K23" t="n">
         <v>173.9303349594327</v>
@@ -36372,13 +36372,13 @@
         <v>276.0992623069916</v>
       </c>
       <c r="O23" t="n">
-        <v>255.2573699964913</v>
+        <v>484.971219147202</v>
       </c>
       <c r="P23" t="n">
-        <v>203.7422138980972</v>
+        <v>622.4125835517901</v>
       </c>
       <c r="Q23" t="n">
-        <v>451.6025108746567</v>
+        <v>133.2948848861408</v>
       </c>
       <c r="R23" t="n">
         <v>170.8749407257336</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>17.55607926950007</v>
       </c>
       <c r="J24" t="n">
         <v>299.3020489853179</v>
       </c>
       <c r="K24" t="n">
-        <v>200.8585352005003</v>
+        <v>122.8524401969789</v>
       </c>
       <c r="L24" t="n">
         <v>184.1403972501778</v>
@@ -36460,7 +36460,7 @@
         <v>494.6241662053343</v>
       </c>
       <c r="R24" t="n">
-        <v>9.700915176786232</v>
+        <v>70.15093091080752</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36530,7 +36530,7 @@
         <v>425.633834794244</v>
       </c>
       <c r="O25" t="n">
-        <v>393.303898589461</v>
+        <v>393.3038985894606</v>
       </c>
       <c r="P25" t="n">
         <v>319.9500342623174</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2015753366241</v>
+        <v>432.2781681525122</v>
       </c>
       <c r="K26" t="n">
-        <v>173.9303349594327</v>
+        <v>620.51641254001</v>
       </c>
       <c r="L26" t="n">
         <v>230.872135794977</v>
@@ -36612,13 +36612,13 @@
         <v>255.2573699964913</v>
       </c>
       <c r="P26" t="n">
-        <v>437.6875709343669</v>
+        <v>203.7422138980972</v>
       </c>
       <c r="Q26" t="n">
-        <v>547.7337466542747</v>
+        <v>133.2948848861408</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8749407257336</v>
+        <v>42.59648913367182</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>17.55607926950007</v>
       </c>
       <c r="J27" t="n">
         <v>299.3020489853179</v>
@@ -36682,10 +36682,10 @@
         <v>184.1403972501778</v>
       </c>
       <c r="M27" t="n">
-        <v>323.0594795717673</v>
+        <v>222.8018770472713</v>
       </c>
       <c r="N27" t="n">
-        <v>622.4125835517901</v>
+        <v>234.5932254123874</v>
       </c>
       <c r="O27" t="n">
         <v>205.5170535279774</v>
@@ -36694,10 +36694,10 @@
         <v>157.0365725147195</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.55330054495678</v>
+        <v>494.6241662053343</v>
       </c>
       <c r="R27" t="n">
-        <v>9.700915176786232</v>
+        <v>70.15093091080752</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.81082933659698</v>
+        <v>79.81082933659718</v>
       </c>
       <c r="K28" t="n">
         <v>263.891460084937</v>
@@ -36761,7 +36761,7 @@
         <v>400.4410539555542</v>
       </c>
       <c r="M28" t="n">
-        <v>437.6018792128702</v>
+        <v>437.6018792128701</v>
       </c>
       <c r="N28" t="n">
         <v>425.633834794244</v>
@@ -36834,28 +36834,28 @@
         <v>102.2015753366241</v>
       </c>
       <c r="K29" t="n">
-        <v>206.4853883717539</v>
+        <v>173.9303349594327</v>
       </c>
       <c r="L29" t="n">
-        <v>622.4125835517901</v>
+        <v>230.872135794977</v>
       </c>
       <c r="M29" t="n">
-        <v>622.4125835517901</v>
+        <v>269.8454143244589</v>
       </c>
       <c r="N29" t="n">
         <v>276.0992623069916</v>
       </c>
       <c r="O29" t="n">
-        <v>255.2573699964913</v>
+        <v>622.4125835517901</v>
       </c>
       <c r="P29" t="n">
         <v>203.7422138980972</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.2948848861408</v>
+        <v>414.5238901352458</v>
       </c>
       <c r="R29" t="n">
-        <v>42.59648913367182</v>
+        <v>170.8749407257336</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>17.55607926950007</v>
       </c>
       <c r="J30" t="n">
-        <v>53.17234800083991</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K30" t="n">
         <v>122.8524401969789</v>
@@ -36922,16 +36922,16 @@
         <v>222.8018770472713</v>
       </c>
       <c r="N30" t="n">
-        <v>463.0460575652535</v>
+        <v>234.5932254123874</v>
       </c>
       <c r="O30" t="n">
-        <v>622.4125835517901</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P30" t="n">
         <v>157.0365725147195</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.55330054495678</v>
+        <v>466.2158824676573</v>
       </c>
       <c r="R30" t="n">
         <v>98.55921464848447</v>
@@ -37071,7 +37071,7 @@
         <v>432.2781681525122</v>
       </c>
       <c r="K32" t="n">
-        <v>173.9303349594327</v>
+        <v>620.51641254001</v>
       </c>
       <c r="L32" t="n">
         <v>230.872135794977</v>
@@ -37080,7 +37080,7 @@
         <v>269.8454143244589</v>
       </c>
       <c r="N32" t="n">
-        <v>594.406888295507</v>
+        <v>276.0992623069916</v>
       </c>
       <c r="O32" t="n">
         <v>255.2573699964913</v>
@@ -37092,7 +37092,7 @@
         <v>133.2948848861408</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8749407257336</v>
+        <v>42.59648913367182</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>17.55607926950007</v>
       </c>
       <c r="J33" t="n">
-        <v>53.17234800083991</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K33" t="n">
         <v>122.8524401969789</v>
       </c>
       <c r="L33" t="n">
-        <v>622.4125835517901</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M33" t="n">
         <v>222.8018770472713</v>
@@ -37162,16 +37162,16 @@
         <v>234.5932254123874</v>
       </c>
       <c r="O33" t="n">
-        <v>501.4515288747419</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P33" t="n">
         <v>157.0365725147195</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.55330054495678</v>
+        <v>466.2158824676573</v>
       </c>
       <c r="R33" t="n">
-        <v>9.700915176786232</v>
+        <v>98.55921464848447</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>102.2015753366241</v>
       </c>
       <c r="K35" t="n">
-        <v>173.9303349594327</v>
+        <v>494.6654456430187</v>
       </c>
       <c r="L35" t="n">
         <v>230.872135794977</v>
       </c>
       <c r="M35" t="n">
-        <v>359.4121742009379</v>
+        <v>269.8454143244589</v>
       </c>
       <c r="N35" t="n">
-        <v>507.2676131140987</v>
+        <v>276.0992623069916</v>
       </c>
       <c r="O35" t="n">
         <v>255.2573699964913</v>
@@ -37387,25 +37387,25 @@
         <v>299.3020489853179</v>
       </c>
       <c r="K36" t="n">
-        <v>122.8524401969789</v>
+        <v>200.8585352004996</v>
       </c>
       <c r="L36" t="n">
         <v>184.1403972501778</v>
       </c>
       <c r="M36" t="n">
-        <v>507.2676131140987</v>
+        <v>222.8018770472713</v>
       </c>
       <c r="N36" t="n">
         <v>234.5932254123874</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1282781250485</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P36" t="n">
         <v>157.0365725147195</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.55330054495678</v>
+        <v>494.6241662053343</v>
       </c>
       <c r="R36" t="n">
         <v>9.700915176786232</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>17.55607926950007</v>
       </c>
       <c r="J39" t="n">
         <v>299.3020489853179</v>
       </c>
       <c r="K39" t="n">
-        <v>122.8524401969789</v>
+        <v>183.3024559310005</v>
       </c>
       <c r="L39" t="n">
         <v>184.1403972501778</v>
@@ -37642,10 +37642,10 @@
         <v>157.0365725147195</v>
       </c>
       <c r="Q39" t="n">
-        <v>483.7719617371575</v>
+        <v>494.6241662053343</v>
       </c>
       <c r="R39" t="n">
-        <v>98.55921464848447</v>
+        <v>9.700915176786232</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.81082933659718</v>
+        <v>14.15288627464124</v>
       </c>
       <c r="K40" t="n">
-        <v>263.891460084937</v>
+        <v>55.52762818017518</v>
       </c>
       <c r="L40" t="n">
-        <v>292.9643523379133</v>
+        <v>400.4410539555542</v>
       </c>
       <c r="M40" t="n">
-        <v>89.15102111763233</v>
+        <v>437.6018792128702</v>
       </c>
       <c r="N40" t="n">
         <v>425.633834794244</v>
@@ -37718,10 +37718,10 @@
         <v>393.303898589461</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9500342623174</v>
+        <v>265.5937042695274</v>
       </c>
       <c r="Q40" t="n">
-        <v>143.8693607973701</v>
+        <v>16.3199060439992</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>133.2948848861408</v>
       </c>
       <c r="R41" t="n">
-        <v>42.59648913367146</v>
+        <v>42.59648913367182</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>17.55607926950007</v>
       </c>
       <c r="J42" t="n">
-        <v>53.17234800083991</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K42" t="n">
         <v>122.8524401969789</v>
@@ -37876,13 +37876,13 @@
         <v>205.5170535279774</v>
       </c>
       <c r="P42" t="n">
-        <v>426.2656336302338</v>
+        <v>157.0365725147195</v>
       </c>
       <c r="Q42" t="n">
-        <v>228.7957903942325</v>
+        <v>145.4807717840705</v>
       </c>
       <c r="R42" t="n">
-        <v>9.700915176786232</v>
+        <v>98.55921464848447</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.81082933659718</v>
+        <v>14.15288627464124</v>
       </c>
       <c r="K43" t="n">
-        <v>263.891460084937</v>
+        <v>55.52762818017518</v>
       </c>
       <c r="L43" t="n">
-        <v>400.4410539555542</v>
+        <v>300.2186704508217</v>
       </c>
       <c r="M43" t="n">
-        <v>89.15102111763233</v>
+        <v>426.2656336302338</v>
       </c>
       <c r="N43" t="n">
-        <v>90.24565151385461</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O43" t="n">
         <v>393.303898589461</v>
       </c>
       <c r="P43" t="n">
-        <v>227.1264052414787</v>
+        <v>56.41722267330926</v>
       </c>
       <c r="Q43" t="n">
-        <v>143.8693607973701</v>
+        <v>16.3199060439992</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2015753366241</v>
+        <v>102.2015753366236</v>
       </c>
       <c r="K44" t="n">
         <v>173.9303349594327</v>
@@ -38095,13 +38095,13 @@
         <v>17.55607926950007</v>
       </c>
       <c r="J45" t="n">
-        <v>53.17234800083991</v>
+        <v>299.3020489853179</v>
       </c>
       <c r="K45" t="n">
         <v>122.8524401969789</v>
       </c>
       <c r="L45" t="n">
-        <v>426.2656336302338</v>
+        <v>184.1403972501778</v>
       </c>
       <c r="M45" t="n">
         <v>222.8018770472713</v>
@@ -38110,16 +38110,16 @@
         <v>234.5932254123874</v>
       </c>
       <c r="O45" t="n">
-        <v>359.3072888432114</v>
+        <v>205.5170535279774</v>
       </c>
       <c r="P45" t="n">
         <v>157.0365725147195</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.55330054495678</v>
+        <v>145.4807717840705</v>
       </c>
       <c r="R45" t="n">
-        <v>9.700915176786232</v>
+        <v>98.55921464848447</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.81082933659718</v>
+        <v>14.15288627464124</v>
       </c>
       <c r="K46" t="n">
-        <v>263.891460084937</v>
+        <v>55.52762818017518</v>
       </c>
       <c r="L46" t="n">
-        <v>400.4410539555542</v>
+        <v>300.2186704508217</v>
       </c>
       <c r="M46" t="n">
-        <v>89.15102111763233</v>
+        <v>426.2656336302338</v>
       </c>
       <c r="N46" t="n">
-        <v>90.24565151385461</v>
+        <v>425.633834794244</v>
       </c>
       <c r="O46" t="n">
         <v>393.303898589461</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9500342623174</v>
+        <v>56.41722267330926</v>
       </c>
       <c r="Q46" t="n">
-        <v>51.04573177653157</v>
+        <v>16.3199060439992</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
